--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_11_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_11_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1835511.726071248</v>
+        <v>1805220.697088526</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6251091.318972463</v>
+        <v>6251091.318972465</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="F2" t="n">
         <v>10.00967878293136</v>
@@ -676,10 +676,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.5096686531243394</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5096686531243394</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -758,55 +758,55 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>10.5193474360557</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,76 +816,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="F4" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>10.5193474360557</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="G5" t="n">
         <v>11.94294668035388</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.5096686531243404</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="V5" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>11.94294668035388</v>
@@ -1022,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1098,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5096686531243404</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>10.00967878293136</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="G8" t="n">
         <v>11.94294668035388</v>
@@ -1153,40 +1153,40 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>10.5193474360557</v>
       </c>
       <c r="T9" t="n">
-        <v>10.5193474360557</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="U9" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="V9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>10.5193474360557</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>11.94294668035388</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10.5193474360557</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.9109987651858</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>316.2739675546529</v>
       </c>
       <c r="F11" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4434871155996</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>314.136721391124</v>
@@ -1426,7 +1426,7 @@
         <v>215.551472561587</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>91.19012767173827</v>
       </c>
       <c r="I12" t="n">
-        <v>40.07604784503639</v>
+        <v>40.07604784503638</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.374591662540425</v>
+        <v>9.374591662540411</v>
       </c>
       <c r="S12" t="n">
         <v>136.3694633427392</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W13" t="n">
-        <v>181.4505258075114</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.8148072196457</v>
+        <v>161.9983385799289</v>
       </c>
     </row>
     <row r="14">
@@ -1609,25 +1609,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.4434871155996</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>314.136721391124</v>
       </c>
       <c r="I14" t="n">
-        <v>104.659175092508</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>304.9675380366266</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>91.19012767173827</v>
       </c>
       <c r="I15" t="n">
-        <v>40.07604784503639</v>
+        <v>40.07604784503638</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.374591662540425</v>
+        <v>9.374591662540418</v>
       </c>
       <c r="S15" t="n">
         <v>136.3694633427392</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>117.7837546691494</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W16" t="n">
-        <v>283.2948374677749</v>
+        <v>22.42022431844068</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
-        <v>210.9713575637835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>410.4434871155996</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>314.136721391124</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>61.51852564879096</v>
       </c>
       <c r="T17" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>290.4999346180985</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>389.6064368699203</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>227.9733019088003</v>
       </c>
       <c r="U19" t="n">
         <v>284.2816495190633</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
         <v>283.2948374677749</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>147.1195075630478</v>
+        <v>42.58904707043927</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
         <v>410.0096787829314</v>
@@ -2098,7 +2098,7 @@
         <v>410.4434871155996</v>
       </c>
       <c r="H20" t="n">
-        <v>314.136721391124</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>113.2811119331022</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U20" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>165.4856434584248</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>328.8786653276711</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>115.2632102387682</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>122.5339189574214</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>227.9733019088003</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
@@ -2304,7 +2304,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>42.58904707043926</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,13 +2323,13 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>401.027438515609</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
         <v>410.4434871155996</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>107.8969586997607</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,19 +2487,19 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>88.84253398170326</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.7988405018876</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>122.5339189574214</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>11.90342624128608</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>117.7837546691494</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W25" t="n">
-        <v>144.4312492624996</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>141.5109612574078</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>410.4434871155996</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>314.136721391124</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.2165261579655</v>
+        <v>212.7104194363789</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>119.6065005547586</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>164.3662253964234</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X28" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>410.4434871155996</v>
       </c>
       <c r="H29" t="n">
-        <v>314.136721391124</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>113.2811119331022</v>
@@ -2845,22 +2845,22 @@
         <v>151.1877507841112</v>
       </c>
       <c r="T29" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>252.2165261579655</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>110.5865578222414</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>385.9080043402466</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>88.84253398170326</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.90342624128608</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>117.7837546691494</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>191.5538079377125</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V31" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>158.4102211106265</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H32" t="n">
-        <v>187.5159815680241</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I32" t="n">
         <v>113.2811119331022</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U32" t="n">
         <v>252.2165261579655</v>
@@ -3094,7 +3094,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
         <v>389.6064368699203</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -3195,22 +3195,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>151.7988405018876</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>11.90342624128608</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>193.6059099100734</v>
       </c>
       <c r="U34" t="n">
-        <v>178.8582383813861</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>350.3448320690319</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H35" t="n">
         <v>314.136721391124</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>108.7539293794073</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>389.6064368699203</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>4.306533434819666</v>
       </c>
       <c r="G37" t="n">
         <v>166.5579452058188</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9733019088003</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>252.980793565397</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,19 +3505,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>62.23371191495706</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H38" t="n">
         <v>314.136721391124</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>39.11358502544837</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="39">
@@ -3638,7 +3638,7 @@
         <v>183.5644949576814</v>
       </c>
       <c r="U39" t="n">
-        <v>216.2570627937013</v>
+        <v>216.2570627937012</v>
       </c>
       <c r="V39" t="n">
         <v>226.1116663261494</v>
@@ -3669,22 +3669,22 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>107.3330331578068</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>122.5339189574214</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.90342624128608</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>117.7837546691494</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>41.62240951566152</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y40" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>142.0153697646664</v>
       </c>
       <c r="V41" t="n">
-        <v>93.31836535799948</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>39.83548268083887</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>151.7988405018876</v>
       </c>
       <c r="I43" t="n">
-        <v>122.5339189574214</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.81926774107744</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>110.6947201581898</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>314.136721391124</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V44" t="n">
         <v>333.6094813630181</v>
@@ -4042,7 +4042,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>278.1948269644961</v>
       </c>
       <c r="Y44" t="n">
         <v>389.6064368699203</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5579452058188</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>151.7988405018876</v>
       </c>
       <c r="I46" t="n">
-        <v>24.37906166153422</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>117.7837546691494</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9733019088003</v>
+        <v>32.51244206364534</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="C2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="D2" t="n">
-        <v>23.64462171059961</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="E2" t="n">
         <v>23.64462171059961</v>
@@ -4324,31 +4324,31 @@
         <v>1.470252555766027</v>
       </c>
       <c r="H2" t="n">
-        <v>1.470252555766027</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I2" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J2" t="n">
-        <v>12.77895294797866</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="K2" t="n">
-        <v>24.60247016152901</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="L2" t="n">
+        <v>12.3012350807645</v>
+      </c>
+      <c r="M2" t="n">
+        <v>12.3012350807645</v>
+      </c>
+      <c r="N2" t="n">
+        <v>12.3012350807645</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.12475229431485</v>
+      </c>
+      <c r="P2" t="n">
         <v>35.94826950786519</v>
-      </c>
-      <c r="M2" t="n">
-        <v>47.77178672141554</v>
-      </c>
-      <c r="N2" t="n">
-        <v>47.77178672141554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>47.77178672141554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>47.77178672141554</v>
       </c>
       <c r="Q2" t="n">
         <v>47.77178672141554</v>
@@ -4357,25 +4357,25 @@
         <v>47.77178672141554</v>
       </c>
       <c r="S2" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="T2" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="U2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="V2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="W2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="X2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Y2" t="n">
-        <v>23.64462171059961</v>
+        <v>47.77178672141554</v>
       </c>
     </row>
     <row r="3">
@@ -4385,61 +4385,61 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="C3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="D3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="E3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="F3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="G3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I3" t="n">
         <v>0.9554357344283108</v>
       </c>
       <c r="J3" t="n">
-        <v>12.77895294797866</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="K3" t="n">
+        <v>12.3012350807645</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12.3012350807645</v>
+      </c>
+      <c r="M3" t="n">
         <v>24.12475229431485</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
+        <v>24.12475229431485</v>
+      </c>
+      <c r="O3" t="n">
         <v>35.94826950786519</v>
       </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>35.94826950786519</v>
-      </c>
-      <c r="N3" t="n">
-        <v>47.77178672141554</v>
-      </c>
-      <c r="O3" t="n">
-        <v>47.77178672141554</v>
-      </c>
-      <c r="P3" t="n">
-        <v>47.77178672141554</v>
       </c>
       <c r="Q3" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R3" t="n">
-        <v>37.14618325065221</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S3" t="n">
         <v>25.08260074524424</v>
       </c>
       <c r="T3" t="n">
-        <v>13.01901823983628</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U3" t="n">
         <v>13.01901823983628</v>
@@ -4454,7 +4454,7 @@
         <v>13.01901823983628</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="C4" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D4" t="n">
-        <v>47.77178672141554</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="E4" t="n">
-        <v>35.70820421600757</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="F4" t="n">
-        <v>23.64462171059961</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="G4" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H4" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I4" t="n">
         <v>0.9554357344283108</v>
@@ -4494,16 +4494,16 @@
         <v>12.77895294797866</v>
       </c>
       <c r="L4" t="n">
-        <v>24.12475229431485</v>
+        <v>24.60247016152901</v>
       </c>
       <c r="M4" t="n">
-        <v>24.12475229431485</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="N4" t="n">
-        <v>35.94826950786519</v>
+        <v>36.42598737507935</v>
       </c>
       <c r="O4" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P4" t="n">
         <v>47.77178672141554</v>
@@ -4518,22 +4518,22 @@
         <v>47.77178672141554</v>
       </c>
       <c r="T4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X4" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.12980488926189</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="C5" t="n">
-        <v>23.12980488926189</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="D5" t="n">
-        <v>23.12980488926189</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="E5" t="n">
-        <v>23.12980488926189</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="F5" t="n">
         <v>13.01901823983628</v>
@@ -4585,34 +4585,34 @@
         <v>35.94826950786519</v>
       </c>
       <c r="P5" t="n">
-        <v>47.77178672141554</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="Q5" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R5" t="n">
-        <v>47.25696990007782</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S5" t="n">
-        <v>47.25696990007782</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="T5" t="n">
-        <v>47.25696990007782</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="U5" t="n">
-        <v>35.19338739466986</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="V5" t="n">
-        <v>23.12980488926189</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="W5" t="n">
-        <v>23.12980488926189</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="X5" t="n">
-        <v>23.12980488926189</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.12980488926189</v>
+        <v>23.64462171059961</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="C6" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="D6" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="E6" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="F6" t="n">
-        <v>37.14618325065221</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G6" t="n">
-        <v>25.08260074524424</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="H6" t="n">
         <v>13.01901823983628</v>
@@ -4646,52 +4646,52 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="K6" t="n">
-        <v>12.77895294797866</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="L6" t="n">
-        <v>12.77895294797866</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="M6" t="n">
-        <v>12.77895294797866</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="N6" t="n">
         <v>24.12475229431485</v>
       </c>
       <c r="O6" t="n">
+        <v>24.12475229431485</v>
+      </c>
+      <c r="P6" t="n">
         <v>35.94826950786519</v>
-      </c>
-      <c r="P6" t="n">
-        <v>47.77178672141554</v>
       </c>
       <c r="Q6" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R6" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="S6" t="n">
-        <v>47.77178672141554</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="T6" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U6" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="V6" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="W6" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="X6" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="Y6" t="n">
-        <v>47.77178672141554</v>
+        <v>13.01901823983628</v>
       </c>
     </row>
     <row r="7">
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9554357344283108</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="C7" t="n">
         <v>0.9554357344283108</v>
@@ -4731,46 +4731,46 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="L7" t="n">
+        <v>0.9554357344283108</v>
+      </c>
+      <c r="M7" t="n">
         <v>12.77895294797866</v>
       </c>
-      <c r="M7" t="n">
-        <v>24.60247016152901</v>
-      </c>
       <c r="N7" t="n">
+        <v>24.12475229431485</v>
+      </c>
+      <c r="O7" t="n">
         <v>35.94826950786519</v>
-      </c>
-      <c r="O7" t="n">
-        <v>47.77178672141554</v>
       </c>
       <c r="P7" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="Q7" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="R7" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="S7" t="n">
-        <v>47.77178672141554</v>
+        <v>23.64462171059961</v>
       </c>
       <c r="T7" t="n">
-        <v>47.77178672141554</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="U7" t="n">
-        <v>47.77178672141554</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="V7" t="n">
-        <v>37.14618325065221</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="W7" t="n">
-        <v>25.08260074524424</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="X7" t="n">
-        <v>13.01901823983628</v>
+        <v>11.58103920519164</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.9554357344283108</v>
+        <v>11.58103920519164</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="C8" t="n">
-        <v>35.19338739466986</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="D8" t="n">
-        <v>35.19338739466986</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="E8" t="n">
-        <v>35.19338739466986</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="F8" t="n">
-        <v>25.08260074524424</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="G8" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="H8" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="I8" t="n">
         <v>0.9554357344283108</v>
@@ -4810,16 +4810,16 @@
         <v>24.12475229431485</v>
       </c>
       <c r="L8" t="n">
-        <v>35.94826950786519</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="M8" t="n">
-        <v>35.94826950786519</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="N8" t="n">
-        <v>35.94826950786519</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="O8" t="n">
-        <v>35.94826950786519</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="P8" t="n">
         <v>35.94826950786519</v>
@@ -4828,28 +4828,28 @@
         <v>47.77178672141554</v>
       </c>
       <c r="R8" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="S8" t="n">
         <v>35.70820421600757</v>
       </c>
       <c r="T8" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="U8" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="V8" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="W8" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="X8" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="Y8" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
     </row>
     <row r="9">
@@ -4883,43 +4883,43 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.77895294797866</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9554357344283108</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="L9" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="M9" t="n">
-        <v>0.9554357344283108</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="N9" t="n">
-        <v>12.77895294797866</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="O9" t="n">
-        <v>24.60247016152901</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="P9" t="n">
-        <v>35.94826950786519</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="Q9" t="n">
         <v>47.77178672141554</v>
       </c>
       <c r="R9" t="n">
-        <v>47.77178672141554</v>
+        <v>35.70820421600757</v>
       </c>
       <c r="S9" t="n">
-        <v>47.77178672141554</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="T9" t="n">
-        <v>37.14618325065221</v>
+        <v>13.01901823983628</v>
       </c>
       <c r="U9" t="n">
-        <v>25.08260074524424</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="V9" t="n">
-        <v>13.01901823983628</v>
+        <v>0.9554357344283108</v>
       </c>
       <c r="W9" t="n">
         <v>0.9554357344283108</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="C10" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="D10" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="E10" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="F10" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="G10" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
       <c r="H10" t="n">
         <v>25.08260074524424</v>
@@ -4965,19 +4965,19 @@
         <v>0.9554357344283108</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9554357344283108</v>
+        <v>12.3012350807645</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9554357344283108</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="M10" t="n">
-        <v>12.77895294797866</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="N10" t="n">
-        <v>24.60247016152901</v>
+        <v>24.12475229431485</v>
       </c>
       <c r="O10" t="n">
-        <v>36.42598737507935</v>
+        <v>35.94826950786519</v>
       </c>
       <c r="P10" t="n">
         <v>47.77178672141554</v>
@@ -4989,25 +4989,25 @@
         <v>47.77178672141554</v>
       </c>
       <c r="S10" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="T10" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="U10" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="V10" t="n">
-        <v>35.70820421600757</v>
+        <v>47.77178672141554</v>
       </c>
       <c r="W10" t="n">
-        <v>35.70820421600757</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="X10" t="n">
-        <v>35.70820421600757</v>
+        <v>37.14618325065221</v>
       </c>
       <c r="Y10" t="n">
-        <v>35.70820421600757</v>
+        <v>25.08260074524424</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2086.448703797947</v>
+        <v>1214.608498407621</v>
       </c>
       <c r="C11" t="n">
-        <v>1704.514945130754</v>
+        <v>1214.608498407621</v>
       </c>
       <c r="D11" t="n">
-        <v>1704.514945130754</v>
+        <v>1214.608498407621</v>
       </c>
       <c r="E11" t="n">
-        <v>1309.729225236861</v>
+        <v>895.1398443120124</v>
       </c>
       <c r="F11" t="n">
-        <v>895.5780345470309</v>
+        <v>480.9886536221828</v>
       </c>
       <c r="G11" t="n">
         <v>480.9886536221828</v>
@@ -5044,25 +5044,25 @@
         <v>247.2441213907261</v>
       </c>
       <c r="K11" t="n">
-        <v>259.0388582704321</v>
+        <v>676.2140042495212</v>
       </c>
       <c r="L11" t="n">
-        <v>841.1839369676911</v>
+        <v>1051.059697322395</v>
       </c>
       <c r="M11" t="n">
-        <v>1270.571641573619</v>
+        <v>1126.434005476873</v>
       </c>
       <c r="N11" t="n">
-        <v>1880.083313595304</v>
+        <v>1206.776668046504</v>
       </c>
       <c r="O11" t="n">
-        <v>2435.203545131722</v>
+        <v>1761.896899582923</v>
       </c>
       <c r="P11" t="n">
-        <v>2462.673422309838</v>
+        <v>2203.521714177738</v>
       </c>
       <c r="Q11" t="n">
-        <v>2462.673422309838</v>
+        <v>2458.259484296901</v>
       </c>
       <c r="R11" t="n">
         <v>2462.673422309838</v>
@@ -5074,19 +5074,19 @@
         <v>2244.944662146619</v>
       </c>
       <c r="U11" t="n">
-        <v>2244.944662146619</v>
+        <v>1990.18049431029</v>
       </c>
       <c r="V11" t="n">
-        <v>2244.944662146619</v>
+        <v>1990.18049431029</v>
       </c>
       <c r="W11" t="n">
-        <v>2244.944662146619</v>
+        <v>1990.18049431029</v>
       </c>
       <c r="X11" t="n">
-        <v>2244.944662146619</v>
+        <v>1608.150353831784</v>
       </c>
       <c r="Y11" t="n">
-        <v>2244.944662146619</v>
+        <v>1214.608498407621</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>49.25346844619677</v>
       </c>
       <c r="J12" t="n">
-        <v>184.5476517718283</v>
+        <v>184.5476517718284</v>
       </c>
       <c r="K12" t="n">
-        <v>201.9268193764629</v>
+        <v>542.2935794116516</v>
       </c>
       <c r="L12" t="n">
-        <v>740.2038440375014</v>
+        <v>1080.57060407269</v>
       </c>
       <c r="M12" t="n">
-        <v>1349.715516059186</v>
+        <v>1167.488600817257</v>
       </c>
       <c r="N12" t="n">
-        <v>1959.227188080871</v>
+        <v>1268.414082297126</v>
       </c>
       <c r="O12" t="n">
-        <v>2159.612428741865</v>
+        <v>1849.588401768159</v>
       </c>
       <c r="P12" t="n">
-        <v>2203.515355923823</v>
+        <v>2303.352912189716</v>
       </c>
       <c r="Q12" t="n">
         <v>2462.673422309838</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>217.4938171389431</v>
+        <v>326.0969969289607</v>
       </c>
       <c r="C13" t="n">
-        <v>217.4938171389431</v>
+        <v>326.0969969289607</v>
       </c>
       <c r="D13" t="n">
-        <v>217.4938171389431</v>
+        <v>173.0251037567234</v>
       </c>
       <c r="E13" t="n">
-        <v>217.4938171389431</v>
+        <v>173.0251037567234</v>
       </c>
       <c r="F13" t="n">
-        <v>217.4938171389431</v>
+        <v>173.0251037567234</v>
       </c>
       <c r="G13" t="n">
-        <v>49.25346844619677</v>
+        <v>173.0251037567234</v>
       </c>
       <c r="H13" t="n">
-        <v>49.25346844619677</v>
+        <v>173.0251037567234</v>
       </c>
       <c r="I13" t="n">
         <v>49.25346844619677</v>
@@ -5205,16 +5205,16 @@
         <v>160.2207914107512</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8260486972724</v>
+        <v>359.8260486972725</v>
       </c>
       <c r="M13" t="n">
-        <v>582.1992528371532</v>
+        <v>582.1992528371533</v>
       </c>
       <c r="N13" t="n">
-        <v>802.5193766803969</v>
+        <v>802.5193766803972</v>
       </c>
       <c r="O13" t="n">
-        <v>995.1021175735184</v>
+        <v>995.1021175735186</v>
       </c>
       <c r="P13" t="n">
         <v>1138.605746134653</v>
@@ -5232,19 +5232,19 @@
         <v>1037.620168137197</v>
       </c>
       <c r="U13" t="n">
-        <v>1037.620168137197</v>
+        <v>750.4669868048097</v>
       </c>
       <c r="V13" t="n">
-        <v>1037.620168137197</v>
+        <v>489.7316823632323</v>
       </c>
       <c r="W13" t="n">
-        <v>854.33680873567</v>
+        <v>489.7316823632323</v>
       </c>
       <c r="X13" t="n">
-        <v>623.0843446310458</v>
+        <v>489.7316823632323</v>
       </c>
       <c r="Y13" t="n">
-        <v>401.0491858233229</v>
+        <v>326.0969969289607</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2068.629882791819</v>
+        <v>1143.282766594277</v>
       </c>
       <c r="C14" t="n">
-        <v>2068.629882791819</v>
+        <v>761.3490079270839</v>
       </c>
       <c r="D14" t="n">
-        <v>1695.805918019043</v>
+        <v>761.3490079270839</v>
       </c>
       <c r="E14" t="n">
-        <v>1301.020198125149</v>
+        <v>366.5632880331907</v>
       </c>
       <c r="F14" t="n">
-        <v>886.8690074353196</v>
+        <v>366.5632880331907</v>
       </c>
       <c r="G14" t="n">
-        <v>472.2796265104715</v>
+        <v>366.5632880331907</v>
       </c>
       <c r="H14" t="n">
-        <v>154.9698069234776</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="I14" t="n">
         <v>49.25346844619677</v>
@@ -5287,13 +5287,13 @@
         <v>1258.35908294678</v>
       </c>
       <c r="M14" t="n">
-        <v>1867.870754968465</v>
+        <v>1381.171775596036</v>
       </c>
       <c r="N14" t="n">
-        <v>2365.759208867519</v>
+        <v>1461.514438165668</v>
       </c>
       <c r="O14" t="n">
-        <v>2430.789607118784</v>
+        <v>2016.634669702086</v>
       </c>
       <c r="P14" t="n">
         <v>2458.259484296901</v>
@@ -5311,19 +5311,19 @@
         <v>2462.673422309838</v>
       </c>
       <c r="U14" t="n">
-        <v>2462.673422309838</v>
+        <v>2207.909254473509</v>
       </c>
       <c r="V14" t="n">
-        <v>2462.673422309838</v>
+        <v>2207.909254473509</v>
       </c>
       <c r="W14" t="n">
-        <v>2462.673422309838</v>
+        <v>1845.374324331111</v>
       </c>
       <c r="X14" t="n">
-        <v>2462.673422309838</v>
+        <v>1537.326306112296</v>
       </c>
       <c r="Y14" t="n">
-        <v>2462.673422309838</v>
+        <v>1537.326306112296</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>892.0277972157145</v>
+        <v>892.0277972157136</v>
       </c>
       <c r="C15" t="n">
-        <v>730.3241244566693</v>
+        <v>730.3241244566684</v>
       </c>
       <c r="D15" t="n">
-        <v>591.4854874468813</v>
+        <v>591.4854874468804</v>
       </c>
       <c r="E15" t="n">
-        <v>444.4574775037524</v>
+        <v>444.4574775037515</v>
       </c>
       <c r="F15" t="n">
-        <v>309.7636794536269</v>
+        <v>309.763679453626</v>
       </c>
       <c r="G15" t="n">
-        <v>181.845564927788</v>
+        <v>181.8455649277876</v>
       </c>
       <c r="H15" t="n">
-        <v>89.73432485532476</v>
+        <v>89.7343248553243</v>
       </c>
       <c r="I15" t="n">
         <v>49.25346844619677</v>
       </c>
       <c r="J15" t="n">
-        <v>49.25346844619677</v>
+        <v>184.5476517718284</v>
       </c>
       <c r="K15" t="n">
-        <v>406.99939608602</v>
+        <v>542.2935794116516</v>
       </c>
       <c r="L15" t="n">
-        <v>866.3155701366131</v>
+        <v>1080.57060407269</v>
       </c>
       <c r="M15" t="n">
-        <v>1475.827242158298</v>
+        <v>1167.488600817257</v>
       </c>
       <c r="N15" t="n">
-        <v>2085.338914179983</v>
+        <v>1268.414082297126</v>
       </c>
       <c r="O15" t="n">
-        <v>2159.612428741865</v>
+        <v>1749.750845502266</v>
       </c>
       <c r="P15" t="n">
         <v>2203.515355923823</v>
@@ -5381,25 +5381,25 @@
         <v>2462.673422309838</v>
       </c>
       <c r="R15" t="n">
-        <v>2453.204137802222</v>
+        <v>2453.204137802221</v>
       </c>
       <c r="S15" t="n">
-        <v>2315.457205132789</v>
+        <v>2315.457205132788</v>
       </c>
       <c r="T15" t="n">
-        <v>2130.038523357353</v>
+        <v>2130.038523357352</v>
       </c>
       <c r="U15" t="n">
-        <v>1911.597045787958</v>
+        <v>1911.597045787957</v>
       </c>
       <c r="V15" t="n">
-        <v>1683.201423236292</v>
+        <v>1683.201423236291</v>
       </c>
       <c r="W15" t="n">
-        <v>1441.885554469602</v>
+        <v>1441.885554469601</v>
       </c>
       <c r="X15" t="n">
-        <v>1243.968566347397</v>
+        <v>1243.968566347396</v>
       </c>
       <c r="Y15" t="n">
         <v>1051.447239996975</v>
@@ -5442,7 +5442,7 @@
         <v>160.2207914107512</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8260486972724</v>
+        <v>359.8260486972725</v>
       </c>
       <c r="M16" t="n">
         <v>582.1992528371532</v>
@@ -5460,28 +5460,28 @@
         <v>1156.593657701994</v>
       </c>
       <c r="R16" t="n">
-        <v>1037.620168137197</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="S16" t="n">
-        <v>1037.620168137197</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="T16" t="n">
-        <v>1037.620168137197</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="U16" t="n">
-        <v>1037.620168137197</v>
+        <v>869.4404763696068</v>
       </c>
       <c r="V16" t="n">
-        <v>1037.620168137197</v>
+        <v>608.7051719280294</v>
       </c>
       <c r="W16" t="n">
-        <v>751.4637666545959</v>
+        <v>586.0584806972812</v>
       </c>
       <c r="X16" t="n">
-        <v>751.4637666545959</v>
+        <v>354.8060165926569</v>
       </c>
       <c r="Y16" t="n">
-        <v>538.3613852770368</v>
+        <v>354.8060165926569</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1175.938388851932</v>
+        <v>1612.948102469889</v>
       </c>
       <c r="C17" t="n">
-        <v>1175.938388851932</v>
+        <v>1231.014343802696</v>
       </c>
       <c r="D17" t="n">
-        <v>1175.938388851932</v>
+        <v>858.1903790299195</v>
       </c>
       <c r="E17" t="n">
-        <v>781.1526689580388</v>
+        <v>463.4046591360265</v>
       </c>
       <c r="F17" t="n">
-        <v>781.1526689580388</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="G17" t="n">
-        <v>366.5632880331907</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="H17" t="n">
         <v>49.25346844619677</v>
@@ -5515,52 +5515,52 @@
         <v>49.25346844619677</v>
       </c>
       <c r="J17" t="n">
-        <v>247.2441213907261</v>
+        <v>49.25346844619677</v>
       </c>
       <c r="K17" t="n">
-        <v>259.0388582704322</v>
+        <v>478.2233513049918</v>
       </c>
       <c r="L17" t="n">
-        <v>841.1839369676914</v>
+        <v>1060.368430002251</v>
       </c>
       <c r="M17" t="n">
-        <v>1450.695608989376</v>
+        <v>1381.171775596036</v>
       </c>
       <c r="N17" t="n">
-        <v>2060.207281011061</v>
+        <v>1461.514438165668</v>
       </c>
       <c r="O17" t="n">
-        <v>2180.465775012559</v>
+        <v>2016.634669702086</v>
       </c>
       <c r="P17" t="n">
-        <v>2207.935652190675</v>
+        <v>2458.259484296901</v>
       </c>
       <c r="Q17" t="n">
-        <v>2462.673422309838</v>
+        <v>2458.259484296901</v>
       </c>
       <c r="R17" t="n">
         <v>2462.673422309838</v>
       </c>
       <c r="S17" t="n">
-        <v>2462.673422309838</v>
+        <v>2400.53349741207</v>
       </c>
       <c r="T17" t="n">
-        <v>2244.944662146619</v>
+        <v>2400.53349741207</v>
       </c>
       <c r="U17" t="n">
-        <v>2244.944662146619</v>
+        <v>2400.53349741207</v>
       </c>
       <c r="V17" t="n">
-        <v>2244.944662146619</v>
+        <v>2400.53349741207</v>
       </c>
       <c r="W17" t="n">
-        <v>1951.5103847546</v>
+        <v>2400.53349741207</v>
       </c>
       <c r="X17" t="n">
-        <v>1569.480244276094</v>
+        <v>2400.53349741207</v>
       </c>
       <c r="Y17" t="n">
-        <v>1175.938388851932</v>
+        <v>2006.991641987908</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>49.25346844619677</v>
       </c>
       <c r="J18" t="n">
-        <v>49.25346844619677</v>
+        <v>84.71009550593504</v>
       </c>
       <c r="K18" t="n">
-        <v>66.63263605083135</v>
+        <v>442.4560231457583</v>
       </c>
       <c r="L18" t="n">
-        <v>127.638136306318</v>
+        <v>980.7330478067969</v>
       </c>
       <c r="M18" t="n">
-        <v>737.1498083280029</v>
+        <v>1067.651044551364</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.661480349688</v>
+        <v>1168.576526031233</v>
       </c>
       <c r="O18" t="n">
-        <v>1927.835799820721</v>
+        <v>1749.750845502266</v>
       </c>
       <c r="P18" t="n">
         <v>2203.515355923823</v>
@@ -5700,25 +5700,25 @@
         <v>1156.593657701994</v>
       </c>
       <c r="S19" t="n">
-        <v>954.7239831405624</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="T19" t="n">
-        <v>954.7239831405624</v>
+        <v>926.3175951678523</v>
       </c>
       <c r="U19" t="n">
-        <v>667.5708018081752</v>
+        <v>639.1644138354652</v>
       </c>
       <c r="V19" t="n">
-        <v>667.5708018081752</v>
+        <v>378.4291093938878</v>
       </c>
       <c r="W19" t="n">
-        <v>381.4144003255744</v>
+        <v>92.27270791128694</v>
       </c>
       <c r="X19" t="n">
-        <v>381.4144003255744</v>
+        <v>92.27270791128694</v>
       </c>
       <c r="Y19" t="n">
-        <v>232.8088371305766</v>
+        <v>49.25346844619677</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1309.729225236861</v>
+        <v>1760.029090316536</v>
       </c>
       <c r="C20" t="n">
-        <v>1309.729225236861</v>
+        <v>1760.029090316536</v>
       </c>
       <c r="D20" t="n">
-        <v>1309.729225236861</v>
+        <v>1387.20512554376</v>
       </c>
       <c r="E20" t="n">
-        <v>1309.729225236861</v>
+        <v>992.4194056498668</v>
       </c>
       <c r="F20" t="n">
-        <v>895.5780345470309</v>
+        <v>578.2682149600371</v>
       </c>
       <c r="G20" t="n">
-        <v>480.9886536221828</v>
+        <v>163.6788340351889</v>
       </c>
       <c r="H20" t="n">
         <v>163.6788340351889</v>
       </c>
       <c r="I20" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619678</v>
       </c>
       <c r="J20" t="n">
-        <v>49.25346844619676</v>
+        <v>247.2441213907261</v>
       </c>
       <c r="K20" t="n">
-        <v>478.2233513049918</v>
+        <v>259.0388582704322</v>
       </c>
       <c r="L20" t="n">
-        <v>1060.368430002251</v>
+        <v>841.1839369676914</v>
       </c>
       <c r="M20" t="n">
-        <v>1135.742738156728</v>
+        <v>916.5582451221687</v>
       </c>
       <c r="N20" t="n">
-        <v>1461.514438165667</v>
+        <v>1461.514438165668</v>
       </c>
       <c r="O20" t="n">
-        <v>2016.634669702085</v>
+        <v>2016.634669702086</v>
       </c>
       <c r="P20" t="n">
-        <v>2458.2594842969</v>
+        <v>2458.259484296901</v>
       </c>
       <c r="Q20" t="n">
-        <v>2458.2594842969</v>
+        <v>2458.259484296901</v>
       </c>
       <c r="R20" t="n">
-        <v>2462.673422309838</v>
+        <v>2462.673422309839</v>
       </c>
       <c r="S20" t="n">
-        <v>2462.673422309838</v>
+        <v>2309.958522527908</v>
       </c>
       <c r="T20" t="n">
-        <v>2462.673422309838</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="U20" t="n">
-        <v>2207.909254473509</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="V20" t="n">
-        <v>1870.92998036945</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="W20" t="n">
-        <v>1870.92998036945</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="X20" t="n">
-        <v>1703.77276475488</v>
+        <v>2092.229762364689</v>
       </c>
       <c r="Y20" t="n">
-        <v>1703.77276475488</v>
+        <v>1760.029090316536</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>892.0277972157131</v>
+        <v>892.0277972157133</v>
       </c>
       <c r="C21" t="n">
-        <v>730.324124456668</v>
+        <v>730.3241244566681</v>
       </c>
       <c r="D21" t="n">
-        <v>591.4854874468799</v>
+        <v>591.4854874468801</v>
       </c>
       <c r="E21" t="n">
-        <v>444.4574775037511</v>
+        <v>444.4574775037513</v>
       </c>
       <c r="F21" t="n">
-        <v>309.7636794536255</v>
+        <v>309.7636794536257</v>
       </c>
       <c r="G21" t="n">
         <v>181.8455649277873</v>
       </c>
       <c r="H21" t="n">
-        <v>89.73432485532442</v>
+        <v>89.73432485532445</v>
       </c>
       <c r="I21" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619678</v>
       </c>
       <c r="J21" t="n">
-        <v>49.25346844619676</v>
+        <v>184.5476517718284</v>
       </c>
       <c r="K21" t="n">
-        <v>66.63263605083134</v>
+        <v>542.2935794116516</v>
       </c>
       <c r="L21" t="n">
-        <v>127.638136306318</v>
+        <v>1080.57060407269</v>
       </c>
       <c r="M21" t="n">
-        <v>737.1498083280028</v>
+        <v>1167.488600817257</v>
       </c>
       <c r="N21" t="n">
-        <v>1346.661480349688</v>
+        <v>1268.414082297126</v>
       </c>
       <c r="O21" t="n">
-        <v>1927.835799820721</v>
+        <v>1849.588401768159</v>
       </c>
       <c r="P21" t="n">
-        <v>2381.600310242278</v>
+        <v>2303.352912189716</v>
       </c>
       <c r="Q21" t="n">
         <v>2462.673422309838</v>
@@ -5886,37 +5886,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>493.2744666881509</v>
+        <v>49.25346844619678</v>
       </c>
       <c r="C22" t="n">
-        <v>493.2744666881509</v>
+        <v>49.25346844619678</v>
       </c>
       <c r="D22" t="n">
-        <v>493.2744666881509</v>
+        <v>49.25346844619678</v>
       </c>
       <c r="E22" t="n">
-        <v>341.2654524494698</v>
+        <v>49.25346844619678</v>
       </c>
       <c r="F22" t="n">
-        <v>341.2654524494698</v>
+        <v>49.25346844619678</v>
       </c>
       <c r="G22" t="n">
-        <v>173.0251037567234</v>
+        <v>49.25346844619678</v>
       </c>
       <c r="H22" t="n">
-        <v>173.0251037567234</v>
+        <v>49.25346844619678</v>
       </c>
       <c r="I22" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619678</v>
       </c>
       <c r="J22" t="n">
-        <v>49.25346844619676</v>
+        <v>49.25346844619678</v>
       </c>
       <c r="K22" t="n">
         <v>160.2207914107512</v>
       </c>
       <c r="L22" t="n">
-        <v>359.8260486972724</v>
+        <v>359.8260486972725</v>
       </c>
       <c r="M22" t="n">
         <v>582.1992528371532</v>
@@ -5940,22 +5940,22 @@
         <v>1156.593657701994</v>
       </c>
       <c r="T22" t="n">
-        <v>1156.593657701994</v>
+        <v>926.3175951678523</v>
       </c>
       <c r="U22" t="n">
-        <v>1156.593657701994</v>
+        <v>639.1644138354652</v>
       </c>
       <c r="V22" t="n">
-        <v>895.8583532604166</v>
+        <v>378.4291093938878</v>
       </c>
       <c r="W22" t="n">
-        <v>609.7019517778158</v>
+        <v>92.27270791128694</v>
       </c>
       <c r="X22" t="n">
-        <v>609.7019517778158</v>
+        <v>49.25346844619678</v>
       </c>
       <c r="Y22" t="n">
-        <v>609.7019517778158</v>
+        <v>49.25346844619678</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2363.298594136124</v>
+        <v>1999.54759933034</v>
       </c>
       <c r="C23" t="n">
-        <v>1981.364835468931</v>
+        <v>1617.613840663147</v>
       </c>
       <c r="D23" t="n">
-        <v>1608.540870696155</v>
+        <v>1617.613840663147</v>
       </c>
       <c r="E23" t="n">
-        <v>1213.755150802262</v>
+        <v>1222.828120769254</v>
       </c>
       <c r="F23" t="n">
         <v>808.6769300794242</v>
@@ -6019,22 +6019,22 @@
         <v>3838.886478379108</v>
       </c>
       <c r="T23" t="n">
-        <v>3838.886478379108</v>
+        <v>3729.899651409653</v>
       </c>
       <c r="U23" t="n">
-        <v>3838.886478379108</v>
+        <v>3475.135483573324</v>
       </c>
       <c r="V23" t="n">
-        <v>3501.907204275049</v>
+        <v>3138.156209469265</v>
       </c>
       <c r="W23" t="n">
-        <v>3139.37227413265</v>
+        <v>2775.621279326866</v>
       </c>
       <c r="X23" t="n">
-        <v>2757.342133654143</v>
+        <v>2393.591138848359</v>
       </c>
       <c r="Y23" t="n">
-        <v>2757.342133654143</v>
+        <v>2393.591138848359</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>76.77772956758216</v>
       </c>
       <c r="J24" t="n">
-        <v>212.0719128932137</v>
+        <v>112.2343566273203</v>
       </c>
       <c r="K24" t="n">
-        <v>229.4510804978483</v>
+        <v>469.9802842671436</v>
       </c>
       <c r="L24" t="n">
-        <v>767.7281051588869</v>
+        <v>1008.257308928182</v>
       </c>
       <c r="M24" t="n">
-        <v>1454.008518949704</v>
+        <v>1095.175305672749</v>
       </c>
       <c r="N24" t="n">
-        <v>1554.934000429573</v>
+        <v>1196.100787152618</v>
       </c>
       <c r="O24" t="n">
-        <v>2136.108319900605</v>
+        <v>1777.275106623651</v>
       </c>
       <c r="P24" t="n">
-        <v>2490.197683431223</v>
+        <v>2231.039617045208</v>
       </c>
       <c r="Q24" t="n">
         <v>2490.197683431223</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>688.0018143837561</v>
+        <v>166.5176628824339</v>
       </c>
       <c r="C25" t="n">
-        <v>518.3858448454364</v>
+        <v>166.5176628824339</v>
       </c>
       <c r="D25" t="n">
-        <v>518.3858448454364</v>
+        <v>166.5176628824339</v>
       </c>
       <c r="E25" t="n">
-        <v>518.3858448454364</v>
+        <v>166.5176628824339</v>
       </c>
       <c r="F25" t="n">
-        <v>365.9051898712136</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="G25" t="n">
-        <v>365.9051898712136</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="H25" t="n">
-        <v>212.5730277480948</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="I25" t="n">
-        <v>88.8013924375681</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="J25" t="n">
         <v>76.77772956758216</v>
@@ -6171,28 +6171,28 @@
         <v>1184.117918823379</v>
       </c>
       <c r="R25" t="n">
-        <v>1065.144429258582</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="S25" t="n">
-        <v>1065.144429258582</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="T25" t="n">
-        <v>1065.144429258582</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="U25" t="n">
-        <v>1065.144429258582</v>
+        <v>896.9647374909921</v>
       </c>
       <c r="V25" t="n">
-        <v>1065.144429258582</v>
+        <v>636.2294330494146</v>
       </c>
       <c r="W25" t="n">
-        <v>919.2542784883804</v>
+        <v>350.0730315668138</v>
       </c>
       <c r="X25" t="n">
-        <v>688.0018143837561</v>
+        <v>350.0730315668138</v>
       </c>
       <c r="Y25" t="n">
-        <v>688.0018143837561</v>
+        <v>350.0730315668138</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1738.592450448503</v>
+        <v>1754.897729180266</v>
       </c>
       <c r="C26" t="n">
-        <v>1738.592450448503</v>
+        <v>1372.963970513073</v>
       </c>
       <c r="D26" t="n">
-        <v>1365.768485675726</v>
+        <v>1000.140005740297</v>
       </c>
       <c r="E26" t="n">
-        <v>1222.828120769254</v>
+        <v>605.354285846404</v>
       </c>
       <c r="F26" t="n">
-        <v>808.6769300794242</v>
+        <v>191.2030951565743</v>
       </c>
       <c r="G26" t="n">
-        <v>394.0875491545761</v>
+        <v>191.2030951565743</v>
       </c>
       <c r="H26" t="n">
-        <v>76.77772956758216</v>
+        <v>191.2030951565743</v>
       </c>
       <c r="I26" t="n">
         <v>76.77772956758216</v>
@@ -6253,25 +6253,25 @@
         <v>3838.886478379108</v>
       </c>
       <c r="S26" t="n">
-        <v>3686.171578597177</v>
+        <v>3838.886478379108</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.442818433958</v>
+        <v>3838.886478379108</v>
       </c>
       <c r="U26" t="n">
-        <v>3213.678650597629</v>
+        <v>3624.027468847412</v>
       </c>
       <c r="V26" t="n">
-        <v>2876.699376493571</v>
+        <v>3287.048194743353</v>
       </c>
       <c r="W26" t="n">
-        <v>2514.164446351172</v>
+        <v>2924.513264600954</v>
       </c>
       <c r="X26" t="n">
-        <v>2132.134305872665</v>
+        <v>2542.483124122447</v>
       </c>
       <c r="Y26" t="n">
-        <v>1738.592450448503</v>
+        <v>2148.941268698286</v>
       </c>
     </row>
     <row r="27">
@@ -6305,22 +6305,22 @@
         <v>76.77772956758216</v>
       </c>
       <c r="J27" t="n">
-        <v>212.0719128932137</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="K27" t="n">
-        <v>569.817840533037</v>
+        <v>434.5236572074054</v>
       </c>
       <c r="L27" t="n">
-        <v>630.8233407885236</v>
+        <v>972.800681868444</v>
       </c>
       <c r="M27" t="n">
-        <v>1317.10375457934</v>
+        <v>1095.175305672749</v>
       </c>
       <c r="N27" t="n">
-        <v>1418.029236059209</v>
+        <v>1196.100787152618</v>
       </c>
       <c r="O27" t="n">
-        <v>1999.203555530242</v>
+        <v>1777.275106623651</v>
       </c>
       <c r="P27" t="n">
         <v>2231.039617045208</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>76.77772956758216</v>
+        <v>350.0730315668138</v>
       </c>
       <c r="C28" t="n">
-        <v>76.77772956758216</v>
+        <v>350.0730315668138</v>
       </c>
       <c r="D28" t="n">
-        <v>76.77772956758216</v>
+        <v>350.0730315668138</v>
       </c>
       <c r="E28" t="n">
-        <v>76.77772956758216</v>
+        <v>350.0730315668138</v>
       </c>
       <c r="F28" t="n">
-        <v>76.77772956758216</v>
+        <v>197.5923765925909</v>
       </c>
       <c r="G28" t="n">
         <v>76.77772956758216</v>
@@ -6411,25 +6411,25 @@
         <v>1184.117918823379</v>
       </c>
       <c r="S28" t="n">
-        <v>982.2482442619477</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="T28" t="n">
-        <v>816.2217539625301</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="U28" t="n">
-        <v>816.2217539625301</v>
+        <v>896.9647374909921</v>
       </c>
       <c r="V28" t="n">
-        <v>816.2217539625301</v>
+        <v>636.2294330494146</v>
       </c>
       <c r="W28" t="n">
-        <v>530.0653524799293</v>
+        <v>350.0730315668138</v>
       </c>
       <c r="X28" t="n">
-        <v>298.8128883753051</v>
+        <v>350.0730315668138</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.77772956758216</v>
+        <v>350.0730315668138</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2104.863171024916</v>
+        <v>1787.553351437922</v>
       </c>
       <c r="C29" t="n">
-        <v>2104.863171024916</v>
+        <v>1787.553351437922</v>
       </c>
       <c r="D29" t="n">
-        <v>1732.039206252139</v>
+        <v>1414.729386665145</v>
       </c>
       <c r="E29" t="n">
-        <v>1337.253486358246</v>
+        <v>1019.943666771252</v>
       </c>
       <c r="F29" t="n">
-        <v>923.1022956684163</v>
+        <v>605.7924760814224</v>
       </c>
       <c r="G29" t="n">
-        <v>508.5129147435682</v>
+        <v>191.2030951565743</v>
       </c>
       <c r="H29" t="n">
         <v>191.2030951565743</v>
@@ -6463,16 +6463,16 @@
         <v>76.77772956758216</v>
       </c>
       <c r="J29" t="n">
-        <v>274.7683825121117</v>
+        <v>274.7683825121121</v>
       </c>
       <c r="K29" t="n">
-        <v>703.7382653709064</v>
+        <v>703.7382653709069</v>
       </c>
       <c r="L29" t="n">
         <v>1285.883344068166</v>
       </c>
       <c r="M29" t="n">
-        <v>1939.781569827918</v>
+        <v>1939.781569827919</v>
       </c>
       <c r="N29" t="n">
         <v>2582.989724115774</v>
@@ -6493,22 +6493,22 @@
         <v>3686.171578597177</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.442818433958</v>
+        <v>3686.171578597177</v>
       </c>
       <c r="U29" t="n">
-        <v>3213.678650597629</v>
+        <v>3431.407410760849</v>
       </c>
       <c r="V29" t="n">
-        <v>2876.699376493571</v>
+        <v>3319.703817001009</v>
       </c>
       <c r="W29" t="n">
-        <v>2876.699376493571</v>
+        <v>2957.16888685861</v>
       </c>
       <c r="X29" t="n">
-        <v>2494.669236015064</v>
+        <v>2575.138746380103</v>
       </c>
       <c r="Y29" t="n">
-        <v>2104.863171024916</v>
+        <v>2181.596890955941</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>76.77772956758216</v>
       </c>
       <c r="J30" t="n">
-        <v>76.77772956758216</v>
+        <v>112.2343566273203</v>
       </c>
       <c r="K30" t="n">
-        <v>94.15689717221673</v>
+        <v>469.9802842671436</v>
       </c>
       <c r="L30" t="n">
-        <v>632.4339218332553</v>
+        <v>1008.257308928182</v>
       </c>
       <c r="M30" t="n">
-        <v>1318.714335624072</v>
+        <v>1095.175305672749</v>
       </c>
       <c r="N30" t="n">
-        <v>1455.258853538633</v>
+        <v>1196.100787152618</v>
       </c>
       <c r="O30" t="n">
-        <v>2036.433173009666</v>
+        <v>1777.275106623651</v>
       </c>
       <c r="P30" t="n">
-        <v>2490.197683431223</v>
+        <v>2231.039617045208</v>
       </c>
       <c r="Q30" t="n">
         <v>2490.197683431223</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3063.819314924723</v>
+        <v>166.5176628824339</v>
       </c>
       <c r="C31" t="n">
-        <v>3063.819314924723</v>
+        <v>166.5176628824339</v>
       </c>
       <c r="D31" t="n">
-        <v>3063.819314924723</v>
+        <v>166.5176628824339</v>
       </c>
       <c r="E31" t="n">
-        <v>2911.810300686042</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="F31" t="n">
-        <v>2911.810300686042</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="G31" t="n">
-        <v>2743.569951993295</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="H31" t="n">
-        <v>2743.569951993295</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="I31" t="n">
-        <v>2743.569951993295</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="J31" t="n">
-        <v>2731.54628912331</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="K31" t="n">
-        <v>2842.513612087864</v>
+        <v>187.7450525321366</v>
       </c>
       <c r="L31" t="n">
-        <v>3042.118869374386</v>
+        <v>387.3503098186578</v>
       </c>
       <c r="M31" t="n">
-        <v>3264.492073514266</v>
+        <v>609.7235139585385</v>
       </c>
       <c r="N31" t="n">
-        <v>3484.81219735751</v>
+        <v>830.0436378017823</v>
       </c>
       <c r="O31" t="n">
-        <v>3677.394938250632</v>
+        <v>1022.626378694904</v>
       </c>
       <c r="P31" t="n">
-        <v>3820.898566811766</v>
+        <v>1166.130007256038</v>
       </c>
       <c r="Q31" t="n">
-        <v>3838.886478379108</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="R31" t="n">
-        <v>3719.91298881431</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="S31" t="n">
-        <v>3518.043314252879</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="T31" t="n">
-        <v>3518.043314252879</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="U31" t="n">
-        <v>3324.5546193663</v>
+        <v>896.9647374909921</v>
       </c>
       <c r="V31" t="n">
-        <v>3063.819314924723</v>
+        <v>636.2294330494146</v>
       </c>
       <c r="W31" t="n">
-        <v>3063.819314924723</v>
+        <v>350.0730315668138</v>
       </c>
       <c r="X31" t="n">
-        <v>3063.819314924723</v>
+        <v>350.0730315668138</v>
       </c>
       <c r="Y31" t="n">
-        <v>3063.819314924723</v>
+        <v>350.0730315668138</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1944.30781157221</v>
+        <v>1497.263810712414</v>
       </c>
       <c r="C32" t="n">
-        <v>1562.374052905017</v>
+        <v>1337.253486358246</v>
       </c>
       <c r="D32" t="n">
-        <v>1189.550088132241</v>
+        <v>1337.253486358246</v>
       </c>
       <c r="E32" t="n">
-        <v>794.7643682383475</v>
+        <v>1337.253486358246</v>
       </c>
       <c r="F32" t="n">
-        <v>380.6131775485179</v>
+        <v>923.1022956684163</v>
       </c>
       <c r="G32" t="n">
-        <v>380.6131775485179</v>
+        <v>508.5129147435682</v>
       </c>
       <c r="H32" t="n">
         <v>191.2030951565743</v>
@@ -6700,16 +6700,16 @@
         <v>76.77772956758216</v>
       </c>
       <c r="J32" t="n">
-        <v>274.7683825121117</v>
+        <v>274.7683825121115</v>
       </c>
       <c r="K32" t="n">
-        <v>703.7382653709064</v>
+        <v>703.7382653709066</v>
       </c>
       <c r="L32" t="n">
         <v>1285.883344068166</v>
       </c>
       <c r="M32" t="n">
-        <v>1939.781569827918</v>
+        <v>1939.781569827919</v>
       </c>
       <c r="N32" t="n">
         <v>2582.989724115774</v>
@@ -6727,25 +6727,25 @@
         <v>3838.886478379108</v>
       </c>
       <c r="S32" t="n">
-        <v>3686.171578597177</v>
+        <v>3838.886478379108</v>
       </c>
       <c r="T32" t="n">
-        <v>3686.171578597177</v>
+        <v>3621.157718215889</v>
       </c>
       <c r="U32" t="n">
-        <v>3431.407410760849</v>
+        <v>3366.39355037956</v>
       </c>
       <c r="V32" t="n">
-        <v>3094.42813665679</v>
+        <v>3029.414276275501</v>
       </c>
       <c r="W32" t="n">
-        <v>2731.893206514391</v>
+        <v>2666.879346133102</v>
       </c>
       <c r="X32" t="n">
-        <v>2731.893206514391</v>
+        <v>2284.849205654595</v>
       </c>
       <c r="Y32" t="n">
-        <v>2338.351351090229</v>
+        <v>1891.307350230433</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2268.240853284983</v>
+        <v>919.5520583370986</v>
       </c>
       <c r="C33" t="n">
-        <v>2106.537180525938</v>
+        <v>757.8483855780534</v>
       </c>
       <c r="D33" t="n">
-        <v>1967.69854351615</v>
+        <v>619.0097485682654</v>
       </c>
       <c r="E33" t="n">
-        <v>1820.670533573021</v>
+        <v>471.9817386251367</v>
       </c>
       <c r="F33" t="n">
-        <v>1685.976735522896</v>
+        <v>337.2879405750111</v>
       </c>
       <c r="G33" t="n">
-        <v>1558.058620997057</v>
+        <v>209.3698260491727</v>
       </c>
       <c r="H33" t="n">
-        <v>1465.947380924594</v>
+        <v>117.2585859767098</v>
       </c>
       <c r="I33" t="n">
-        <v>1425.466524515467</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="J33" t="n">
-        <v>1560.760707841098</v>
+        <v>112.2343566273203</v>
       </c>
       <c r="K33" t="n">
-        <v>1918.506635480922</v>
+        <v>469.9802842671436</v>
       </c>
       <c r="L33" t="n">
-        <v>2456.78366014196</v>
+        <v>1008.257308928182</v>
       </c>
       <c r="M33" t="n">
-        <v>2950.764905529785</v>
+        <v>1095.175305672749</v>
       </c>
       <c r="N33" t="n">
-        <v>3051.690387009653</v>
+        <v>1196.100787152618</v>
       </c>
       <c r="O33" t="n">
-        <v>3125.963901571536</v>
+        <v>1777.275106623651</v>
       </c>
       <c r="P33" t="n">
-        <v>3579.728411993093</v>
+        <v>2231.039617045208</v>
       </c>
       <c r="Q33" t="n">
-        <v>3838.886478379108</v>
+        <v>2490.197683431223</v>
       </c>
       <c r="R33" t="n">
-        <v>3829.417193871491</v>
+        <v>2480.728398923607</v>
       </c>
       <c r="S33" t="n">
-        <v>3691.670261202058</v>
+        <v>2342.981466254173</v>
       </c>
       <c r="T33" t="n">
-        <v>3506.251579426622</v>
+        <v>2157.562784478737</v>
       </c>
       <c r="U33" t="n">
-        <v>3287.810101857227</v>
+        <v>1939.121306909342</v>
       </c>
       <c r="V33" t="n">
-        <v>3059.414479305561</v>
+        <v>1710.725684357676</v>
       </c>
       <c r="W33" t="n">
-        <v>2818.098610538871</v>
+        <v>1469.409815590986</v>
       </c>
       <c r="X33" t="n">
-        <v>2620.181622416665</v>
+        <v>1271.492827468781</v>
       </c>
       <c r="Y33" t="n">
-        <v>2427.660296066244</v>
+        <v>1078.97150111836</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3539.248101560385</v>
+        <v>398.8743540801248</v>
       </c>
       <c r="C34" t="n">
-        <v>3369.632132022065</v>
+        <v>229.258384541805</v>
       </c>
       <c r="D34" t="n">
-        <v>3369.632132022065</v>
+        <v>229.258384541805</v>
       </c>
       <c r="E34" t="n">
-        <v>3217.623117783384</v>
+        <v>229.258384541805</v>
       </c>
       <c r="F34" t="n">
-        <v>3065.142462809161</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="G34" t="n">
-        <v>2896.902114116414</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="H34" t="n">
-        <v>2743.569951993295</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="I34" t="n">
-        <v>2743.569951993295</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="J34" t="n">
-        <v>2731.54628912331</v>
+        <v>76.77772956758216</v>
       </c>
       <c r="K34" t="n">
-        <v>2842.513612087864</v>
+        <v>187.7450525321366</v>
       </c>
       <c r="L34" t="n">
-        <v>3042.118869374386</v>
+        <v>387.3503098186578</v>
       </c>
       <c r="M34" t="n">
-        <v>3264.492073514266</v>
+        <v>609.7235139585385</v>
       </c>
       <c r="N34" t="n">
-        <v>3484.81219735751</v>
+        <v>830.0436378017823</v>
       </c>
       <c r="O34" t="n">
-        <v>3677.394938250632</v>
+        <v>1022.626378694904</v>
       </c>
       <c r="P34" t="n">
-        <v>3820.898566811766</v>
+        <v>1166.130007256038</v>
       </c>
       <c r="Q34" t="n">
-        <v>3838.886478379108</v>
+        <v>1184.117918823379</v>
       </c>
       <c r="R34" t="n">
-        <v>3719.91298881431</v>
+        <v>1065.144429258582</v>
       </c>
       <c r="S34" t="n">
-        <v>3719.91298881431</v>
+        <v>1065.144429258582</v>
       </c>
       <c r="T34" t="n">
-        <v>3719.91298881431</v>
+        <v>869.5829040968918</v>
       </c>
       <c r="U34" t="n">
-        <v>3539.248101560385</v>
+        <v>582.4297227645046</v>
       </c>
       <c r="V34" t="n">
-        <v>3539.248101560385</v>
+        <v>582.4297227645046</v>
       </c>
       <c r="W34" t="n">
-        <v>3539.248101560385</v>
+        <v>582.4297227645046</v>
       </c>
       <c r="X34" t="n">
-        <v>3539.248101560385</v>
+        <v>582.4297227645046</v>
       </c>
       <c r="Y34" t="n">
-        <v>3539.248101560385</v>
+        <v>582.4297227645046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>480.9886536221828</v>
+        <v>1704.514945130754</v>
       </c>
       <c r="C35" t="n">
-        <v>480.9886536221828</v>
+        <v>1704.514945130754</v>
       </c>
       <c r="D35" t="n">
-        <v>480.9886536221828</v>
+        <v>1704.514945130754</v>
       </c>
       <c r="E35" t="n">
-        <v>480.9886536221828</v>
+        <v>1309.729225236861</v>
       </c>
       <c r="F35" t="n">
-        <v>480.9886536221828</v>
+        <v>895.5780345470309</v>
       </c>
       <c r="G35" t="n">
         <v>480.9886536221828</v>
@@ -6934,55 +6934,55 @@
         <v>163.6788340351889</v>
       </c>
       <c r="I35" t="n">
-        <v>49.25346844619675</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J35" t="n">
         <v>247.2441213907261</v>
       </c>
       <c r="K35" t="n">
-        <v>259.0388582704321</v>
+        <v>477.2755922995124</v>
       </c>
       <c r="L35" t="n">
-        <v>303.6539538412615</v>
+        <v>521.8906878703418</v>
       </c>
       <c r="M35" t="n">
-        <v>913.1656258629462</v>
+        <v>597.2649960248192</v>
       </c>
       <c r="N35" t="n">
-        <v>1522.677297884631</v>
+        <v>1206.776668046504</v>
       </c>
       <c r="O35" t="n">
-        <v>2016.634669702085</v>
+        <v>1761.896899582922</v>
       </c>
       <c r="P35" t="n">
-        <v>2458.2594842969</v>
+        <v>2203.521714177737</v>
       </c>
       <c r="Q35" t="n">
         <v>2458.2594842969</v>
       </c>
       <c r="R35" t="n">
-        <v>2462.673422309837</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="S35" t="n">
-        <v>2309.958522527907</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="T35" t="n">
-        <v>2309.958522527907</v>
+        <v>2352.820968391245</v>
       </c>
       <c r="U35" t="n">
-        <v>2309.958522527907</v>
+        <v>2098.056800554916</v>
       </c>
       <c r="V35" t="n">
-        <v>1972.979248423848</v>
+        <v>2098.056800554916</v>
       </c>
       <c r="W35" t="n">
-        <v>1610.444318281449</v>
+        <v>2098.056800554916</v>
       </c>
       <c r="X35" t="n">
-        <v>1228.414177802943</v>
+        <v>2098.056800554916</v>
       </c>
       <c r="Y35" t="n">
-        <v>834.8723223787807</v>
+        <v>1704.514945130754</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>89.73432485532442</v>
       </c>
       <c r="I36" t="n">
-        <v>49.25346844619675</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J36" t="n">
-        <v>184.5476517718283</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="K36" t="n">
-        <v>201.9268193764629</v>
+        <v>329.7239311082394</v>
       </c>
       <c r="L36" t="n">
-        <v>740.2038440375015</v>
+        <v>868.000955769278</v>
       </c>
       <c r="M36" t="n">
-        <v>1349.715516059186</v>
+        <v>1477.512627790963</v>
       </c>
       <c r="N36" t="n">
-        <v>1450.640997539055</v>
+        <v>1578.438109270832</v>
       </c>
       <c r="O36" t="n">
-        <v>2031.815317010088</v>
+        <v>2159.612428741865</v>
       </c>
       <c r="P36" t="n">
-        <v>2462.673422309838</v>
+        <v>2203.515355923823</v>
       </c>
       <c r="Q36" t="n">
         <v>2462.673422309838</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1523.573581746786</v>
+        <v>391.4598204498079</v>
       </c>
       <c r="C37" t="n">
-        <v>1523.573581746786</v>
+        <v>221.8438509114882</v>
       </c>
       <c r="D37" t="n">
-        <v>1523.573581746786</v>
+        <v>221.8438509114882</v>
       </c>
       <c r="E37" t="n">
-        <v>1523.573581746786</v>
+        <v>221.8438509114882</v>
       </c>
       <c r="F37" t="n">
-        <v>1523.573581746786</v>
+        <v>217.4938171389431</v>
       </c>
       <c r="G37" t="n">
-        <v>1355.33323305404</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="H37" t="n">
-        <v>1355.33323305404</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="I37" t="n">
-        <v>1355.33323305404</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J37" t="n">
-        <v>1355.33323305404</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="K37" t="n">
-        <v>1466.300556018594</v>
+        <v>160.2207914107512</v>
       </c>
       <c r="L37" t="n">
-        <v>1665.905813305115</v>
+        <v>359.8260486972724</v>
       </c>
       <c r="M37" t="n">
-        <v>1888.279017444996</v>
+        <v>582.1992528371532</v>
       </c>
       <c r="N37" t="n">
-        <v>2108.59914128824</v>
+        <v>802.5193766803969</v>
       </c>
       <c r="O37" t="n">
-        <v>2301.181882181361</v>
+        <v>995.1021175735184</v>
       </c>
       <c r="P37" t="n">
-        <v>2444.685510742496</v>
+        <v>1138.605746134653</v>
       </c>
       <c r="Q37" t="n">
-        <v>2462.673422309837</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="R37" t="n">
-        <v>2462.673422309837</v>
+        <v>1037.620168137197</v>
       </c>
       <c r="S37" t="n">
-        <v>2462.673422309837</v>
+        <v>835.7504935757651</v>
       </c>
       <c r="T37" t="n">
-        <v>2232.397359775696</v>
+        <v>835.7504935757651</v>
       </c>
       <c r="U37" t="n">
-        <v>1976.861204659133</v>
+        <v>835.7504935757651</v>
       </c>
       <c r="V37" t="n">
-        <v>1976.861204659133</v>
+        <v>575.0151891341877</v>
       </c>
       <c r="W37" t="n">
-        <v>1976.861204659133</v>
+        <v>575.0151891341877</v>
       </c>
       <c r="X37" t="n">
-        <v>1745.608740554509</v>
+        <v>575.0151891341877</v>
       </c>
       <c r="Y37" t="n">
-        <v>1523.573581746786</v>
+        <v>575.0151891341877</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1216.40077876343</v>
+        <v>1163.086427625231</v>
       </c>
       <c r="C38" t="n">
-        <v>1153.538443495797</v>
+        <v>781.1526689580387</v>
       </c>
       <c r="D38" t="n">
-        <v>780.7144787230203</v>
+        <v>781.1526689580387</v>
       </c>
       <c r="E38" t="n">
-        <v>780.7144787230203</v>
+        <v>781.1526689580387</v>
       </c>
       <c r="F38" t="n">
-        <v>366.5632880331906</v>
+        <v>781.1526689580387</v>
       </c>
       <c r="G38" t="n">
         <v>366.5632880331906</v>
       </c>
       <c r="H38" t="n">
-        <v>49.25346844619675</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="I38" t="n">
-        <v>49.25346844619675</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J38" t="n">
         <v>247.2441213907261</v>
       </c>
       <c r="K38" t="n">
-        <v>613.0522547218816</v>
+        <v>676.2140042495212</v>
       </c>
       <c r="L38" t="n">
-        <v>1195.197333419141</v>
+        <v>931.0772708718858</v>
       </c>
       <c r="M38" t="n">
-        <v>1270.571641573618</v>
+        <v>1540.588942893571</v>
       </c>
       <c r="N38" t="n">
-        <v>1880.083313595303</v>
+        <v>1620.931605463202</v>
       </c>
       <c r="O38" t="n">
-        <v>2435.203545131721</v>
+        <v>2176.051836999621</v>
       </c>
       <c r="P38" t="n">
-        <v>2462.673422309837</v>
+        <v>2203.521714177737</v>
       </c>
       <c r="Q38" t="n">
-        <v>2462.673422309837</v>
+        <v>2458.2594842969</v>
       </c>
       <c r="R38" t="n">
-        <v>2462.673422309837</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="S38" t="n">
-        <v>2309.958522527907</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="T38" t="n">
-        <v>2309.958522527907</v>
+        <v>2244.944662146619</v>
       </c>
       <c r="U38" t="n">
-        <v>2309.958522527907</v>
+        <v>1990.18049431029</v>
       </c>
       <c r="V38" t="n">
-        <v>1972.979248423848</v>
+        <v>1990.18049431029</v>
       </c>
       <c r="W38" t="n">
-        <v>1610.444318281449</v>
+        <v>1990.18049431029</v>
       </c>
       <c r="X38" t="n">
-        <v>1610.444318281449</v>
+        <v>1950.671822567413</v>
       </c>
       <c r="Y38" t="n">
-        <v>1610.444318281449</v>
+        <v>1557.12996714325</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>89.73432485532442</v>
       </c>
       <c r="I39" t="n">
-        <v>49.25346844619675</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J39" t="n">
-        <v>184.5476517718283</v>
+        <v>184.5476517718284</v>
       </c>
       <c r="K39" t="n">
-        <v>201.9268193764629</v>
+        <v>542.2935794116516</v>
       </c>
       <c r="L39" t="n">
-        <v>262.9323196319496</v>
+        <v>1080.57060407269</v>
       </c>
       <c r="M39" t="n">
-        <v>872.4439916536343</v>
+        <v>1167.488600817257</v>
       </c>
       <c r="N39" t="n">
-        <v>1481.955663675319</v>
+        <v>1268.414082297126</v>
       </c>
       <c r="O39" t="n">
-        <v>2008.90891188828</v>
+        <v>1749.750845502266</v>
       </c>
       <c r="P39" t="n">
-        <v>2462.673422309838</v>
+        <v>2203.515355923823</v>
       </c>
       <c r="Q39" t="n">
         <v>2462.673422309838</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1919.795099375885</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="C40" t="n">
-        <v>1919.795099375885</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="D40" t="n">
-        <v>1919.795099375885</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="E40" t="n">
-        <v>1767.786085137204</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="F40" t="n">
-        <v>1767.786085137204</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="G40" t="n">
-        <v>1599.545736444458</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="H40" t="n">
-        <v>1491.128531234552</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="I40" t="n">
-        <v>1367.356895924026</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J40" t="n">
-        <v>1355.33323305404</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="K40" t="n">
-        <v>1466.300556018594</v>
+        <v>160.2207914107512</v>
       </c>
       <c r="L40" t="n">
-        <v>1665.905813305115</v>
+        <v>359.8260486972724</v>
       </c>
       <c r="M40" t="n">
-        <v>1888.279017444996</v>
+        <v>582.1992528371532</v>
       </c>
       <c r="N40" t="n">
-        <v>2108.59914128824</v>
+        <v>802.5193766803969</v>
       </c>
       <c r="O40" t="n">
-        <v>2301.181882181361</v>
+        <v>995.1021175735184</v>
       </c>
       <c r="P40" t="n">
-        <v>2444.685510742496</v>
+        <v>1138.605746134653</v>
       </c>
       <c r="Q40" t="n">
-        <v>2462.673422309837</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="R40" t="n">
-        <v>2343.69993274504</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.830258183608</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="T40" t="n">
-        <v>2141.830258183608</v>
+        <v>1114.550819807386</v>
       </c>
       <c r="U40" t="n">
-        <v>2141.830258183608</v>
+        <v>827.3976384749992</v>
       </c>
       <c r="V40" t="n">
-        <v>2141.830258183608</v>
+        <v>566.6623340334219</v>
       </c>
       <c r="W40" t="n">
-        <v>2141.830258183608</v>
+        <v>280.505932550821</v>
       </c>
       <c r="X40" t="n">
-        <v>2141.830258183608</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="Y40" t="n">
-        <v>1919.795099375885</v>
+        <v>49.25346844619676</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1198.796911780059</v>
+        <v>836.2286239088028</v>
       </c>
       <c r="C41" t="n">
-        <v>816.8631531128663</v>
+        <v>836.2286239088028</v>
       </c>
       <c r="D41" t="n">
-        <v>444.0391883400899</v>
+        <v>463.4046591360264</v>
       </c>
       <c r="E41" t="n">
-        <v>49.25346844619675</v>
+        <v>463.4046591360264</v>
       </c>
       <c r="F41" t="n">
-        <v>49.25346844619675</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="G41" t="n">
-        <v>49.25346844619675</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="H41" t="n">
-        <v>49.25346844619675</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="I41" t="n">
-        <v>49.25346844619675</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J41" t="n">
         <v>247.2441213907261</v>
@@ -7417,46 +7417,46 @@
         <v>676.2140042495212</v>
       </c>
       <c r="L41" t="n">
-        <v>1258.35908294678</v>
+        <v>1051.059697322395</v>
       </c>
       <c r="M41" t="n">
-        <v>1620.937776774963</v>
+        <v>1126.434005476872</v>
       </c>
       <c r="N41" t="n">
-        <v>1701.280439344594</v>
+        <v>1206.776668046504</v>
       </c>
       <c r="O41" t="n">
-        <v>1766.31083759586</v>
+        <v>1761.896899582922</v>
       </c>
       <c r="P41" t="n">
-        <v>2207.935652190674</v>
+        <v>2203.521714177737</v>
       </c>
       <c r="Q41" t="n">
-        <v>2462.673422309837</v>
+        <v>2458.2594842969</v>
       </c>
       <c r="R41" t="n">
-        <v>2462.673422309837</v>
+        <v>2462.673422309838</v>
       </c>
       <c r="S41" t="n">
-        <v>2462.673422309837</v>
+        <v>2309.958522527907</v>
       </c>
       <c r="T41" t="n">
-        <v>2462.673422309837</v>
+        <v>2092.229762364688</v>
       </c>
       <c r="U41" t="n">
-        <v>2462.673422309837</v>
+        <v>1948.77989391553</v>
       </c>
       <c r="V41" t="n">
-        <v>2368.412447200747</v>
+        <v>1611.800619811472</v>
       </c>
       <c r="W41" t="n">
-        <v>2368.412447200747</v>
+        <v>1611.800619811472</v>
       </c>
       <c r="X41" t="n">
-        <v>1986.38230672224</v>
+        <v>1229.770479332965</v>
       </c>
       <c r="Y41" t="n">
-        <v>1592.840451298078</v>
+        <v>836.2286239088028</v>
       </c>
     </row>
     <row r="42">
@@ -7487,10 +7487,10 @@
         <v>89.73432485532442</v>
       </c>
       <c r="I42" t="n">
-        <v>49.25346844619675</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J42" t="n">
-        <v>184.5476517718283</v>
+        <v>184.5476517718284</v>
       </c>
       <c r="K42" t="n">
         <v>201.9268193764629</v>
@@ -7499,16 +7499,16 @@
         <v>740.2038440375015</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.084503635162</v>
+        <v>827.1218407820683</v>
       </c>
       <c r="N42" t="n">
-        <v>1837.596175656847</v>
+        <v>1168.576526031233</v>
       </c>
       <c r="O42" t="n">
-        <v>2418.77049512788</v>
+        <v>1749.750845502266</v>
       </c>
       <c r="P42" t="n">
-        <v>2462.673422309838</v>
+        <v>2203.515355923823</v>
       </c>
       <c r="Q42" t="n">
         <v>2462.673422309838</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>646.6066288112697</v>
+        <v>692.4509630390628</v>
       </c>
       <c r="C43" t="n">
-        <v>646.6066288112697</v>
+        <v>522.8349935007431</v>
       </c>
       <c r="D43" t="n">
-        <v>646.6066288112697</v>
+        <v>522.8349935007431</v>
       </c>
       <c r="E43" t="n">
-        <v>494.5976145725886</v>
+        <v>370.8259792620619</v>
       </c>
       <c r="F43" t="n">
-        <v>494.5976145725886</v>
+        <v>370.8259792620619</v>
       </c>
       <c r="G43" t="n">
-        <v>326.3572658798422</v>
+        <v>202.5856305693155</v>
       </c>
       <c r="H43" t="n">
-        <v>173.0251037567234</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="I43" t="n">
-        <v>49.25346844619675</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J43" t="n">
-        <v>49.25346844619675</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="K43" t="n">
         <v>160.2207914107512</v>
@@ -7596,25 +7596,25 @@
         <v>1156.593657701994</v>
       </c>
       <c r="S43" t="n">
-        <v>1156.593657701994</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="T43" t="n">
-        <v>1156.593657701994</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="U43" t="n">
-        <v>1156.593657701994</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="V43" t="n">
-        <v>895.8583532604166</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="W43" t="n">
-        <v>895.8583532604166</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="X43" t="n">
-        <v>664.6058891557924</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="Y43" t="n">
-        <v>646.6066288112697</v>
+        <v>732.6888243328394</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>987.587222160712</v>
+        <v>463.4046591360264</v>
       </c>
       <c r="C44" t="n">
-        <v>987.587222160712</v>
+        <v>463.4046591360264</v>
       </c>
       <c r="D44" t="n">
-        <v>987.587222160712</v>
+        <v>463.4046591360264</v>
       </c>
       <c r="E44" t="n">
-        <v>592.8015022668189</v>
+        <v>463.4046591360264</v>
       </c>
       <c r="F44" t="n">
-        <v>592.8015022668189</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="G44" t="n">
-        <v>480.9886536221828</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="H44" t="n">
-        <v>163.6788340351889</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="I44" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J44" t="n">
-        <v>49.25346844619677</v>
+        <v>247.2441213907261</v>
       </c>
       <c r="K44" t="n">
-        <v>78.9148908546747</v>
+        <v>676.2140042495212</v>
       </c>
       <c r="L44" t="n">
-        <v>661.0599695519338</v>
+        <v>720.8290998203506</v>
       </c>
       <c r="M44" t="n">
-        <v>1270.571641573619</v>
+        <v>796.203407974828</v>
       </c>
       <c r="N44" t="n">
-        <v>1880.083313595304</v>
+        <v>1211.190606059442</v>
       </c>
       <c r="O44" t="n">
-        <v>2435.203545131722</v>
+        <v>1766.31083759586</v>
       </c>
       <c r="P44" t="n">
-        <v>2462.673422309838</v>
+        <v>2207.935652190675</v>
       </c>
       <c r="Q44" t="n">
         <v>2462.673422309838</v>
@@ -7675,25 +7675,25 @@
         <v>2462.673422309838</v>
       </c>
       <c r="S44" t="n">
-        <v>2462.673422309838</v>
+        <v>2309.958522527907</v>
       </c>
       <c r="T44" t="n">
-        <v>2462.673422309838</v>
+        <v>2092.229762364688</v>
       </c>
       <c r="U44" t="n">
-        <v>2462.673422309838</v>
+        <v>1837.465594528359</v>
       </c>
       <c r="V44" t="n">
-        <v>2125.69414820578</v>
+        <v>1500.486320424301</v>
       </c>
       <c r="W44" t="n">
-        <v>1763.159218063381</v>
+        <v>1137.951390281902</v>
       </c>
       <c r="X44" t="n">
-        <v>1381.129077584874</v>
+        <v>856.9465145601885</v>
       </c>
       <c r="Y44" t="n">
-        <v>987.587222160712</v>
+        <v>463.4046591360264</v>
       </c>
     </row>
     <row r="45">
@@ -7703,55 +7703,55 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>892.0277972157136</v>
+        <v>892.0277972157131</v>
       </c>
       <c r="C45" t="n">
-        <v>730.3241244566684</v>
+        <v>730.324124456668</v>
       </c>
       <c r="D45" t="n">
-        <v>591.4854874468804</v>
+        <v>591.4854874468799</v>
       </c>
       <c r="E45" t="n">
-        <v>444.4574775037515</v>
+        <v>444.4574775037511</v>
       </c>
       <c r="F45" t="n">
-        <v>309.763679453626</v>
+        <v>309.7636794536255</v>
       </c>
       <c r="G45" t="n">
-        <v>181.8455649277876</v>
+        <v>181.8455649277873</v>
       </c>
       <c r="H45" t="n">
-        <v>89.73432485532445</v>
+        <v>89.73432485532442</v>
       </c>
       <c r="I45" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J45" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="K45" t="n">
-        <v>80.29580695243874</v>
+        <v>406.99939608602</v>
       </c>
       <c r="L45" t="n">
-        <v>618.5728316134773</v>
+        <v>468.0048963415067</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.084503635162</v>
+        <v>1077.516568363191</v>
       </c>
       <c r="N45" t="n">
-        <v>1837.596175656847</v>
+        <v>1178.44204984306</v>
       </c>
       <c r="O45" t="n">
-        <v>2418.77049512788</v>
+        <v>1749.750845502266</v>
       </c>
       <c r="P45" t="n">
-        <v>2462.673422309838</v>
+        <v>2203.515355923823</v>
       </c>
       <c r="Q45" t="n">
         <v>2462.673422309838</v>
       </c>
       <c r="R45" t="n">
-        <v>2453.204137802222</v>
+        <v>2453.204137802221</v>
       </c>
       <c r="S45" t="n">
         <v>2315.457205132788</v>
@@ -7769,10 +7769,10 @@
         <v>1441.885554469601</v>
       </c>
       <c r="X45" t="n">
-        <v>1243.968566347396</v>
+        <v>1243.968566347395</v>
       </c>
       <c r="Y45" t="n">
-        <v>1051.447239996975</v>
+        <v>1051.447239996974</v>
       </c>
     </row>
     <row r="46">
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>546.6088011614777</v>
+        <v>507.0752997822196</v>
       </c>
       <c r="C46" t="n">
-        <v>546.6088011614777</v>
+        <v>507.0752997822196</v>
       </c>
       <c r="D46" t="n">
-        <v>546.6088011614777</v>
+        <v>507.0752997822196</v>
       </c>
       <c r="E46" t="n">
-        <v>394.5997869227965</v>
+        <v>355.0662855435384</v>
       </c>
       <c r="F46" t="n">
-        <v>242.1191319485736</v>
+        <v>202.5856305693155</v>
       </c>
       <c r="G46" t="n">
-        <v>73.8787832558273</v>
+        <v>202.5856305693155</v>
       </c>
       <c r="H46" t="n">
-        <v>73.8787832558273</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="I46" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="J46" t="n">
-        <v>49.25346844619677</v>
+        <v>49.25346844619676</v>
       </c>
       <c r="K46" t="n">
         <v>160.2207914107512</v>
       </c>
       <c r="L46" t="n">
-        <v>359.8260486972725</v>
+        <v>359.8260486972724</v>
       </c>
       <c r="M46" t="n">
         <v>582.1992528371532</v>
@@ -7830,28 +7830,28 @@
         <v>1156.593657701994</v>
       </c>
       <c r="R46" t="n">
-        <v>1037.620168137197</v>
+        <v>1156.593657701994</v>
       </c>
       <c r="S46" t="n">
-        <v>1037.620168137197</v>
+        <v>954.7239831405624</v>
       </c>
       <c r="T46" t="n">
-        <v>807.344105603055</v>
+        <v>921.8831325712237</v>
       </c>
       <c r="U46" t="n">
-        <v>807.344105603055</v>
+        <v>921.8831325712237</v>
       </c>
       <c r="V46" t="n">
-        <v>546.6088011614777</v>
+        <v>921.8831325712237</v>
       </c>
       <c r="W46" t="n">
-        <v>546.6088011614777</v>
+        <v>921.8831325712237</v>
       </c>
       <c r="X46" t="n">
-        <v>546.6088011614777</v>
+        <v>690.6306684665994</v>
       </c>
       <c r="Y46" t="n">
-        <v>546.6088011614777</v>
+        <v>690.6306684665994</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>159.0427441082865</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K2" t="n">
-        <v>190.7659506544006</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L2" t="n">
         <v>203.0206155432522</v>
       </c>
       <c r="M2" t="n">
-        <v>199.099261177513</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N2" t="n">
         <v>186.3981141722301</v>
       </c>
       <c r="O2" t="n">
-        <v>186.9547967801205</v>
+        <v>198.8977434604743</v>
       </c>
       <c r="P2" t="n">
-        <v>187.8768090511565</v>
+        <v>199.8197557315104</v>
       </c>
       <c r="Q2" t="n">
-        <v>180.6233730229902</v>
+        <v>192.5663197033441</v>
       </c>
       <c r="R2" t="n">
         <v>85.43134583487716</v>
@@ -8057,28 +8057,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>114.9985183470206</v>
+        <v>114.5159750468043</v>
       </c>
       <c r="K3" t="n">
-        <v>123.4565725468042</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L3" t="n">
-        <v>124.5183802515017</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>127.4268492419938</v>
       </c>
       <c r="N3" t="n">
-        <v>118.6580877480622</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>115.8594486111111</v>
+        <v>127.802395291465</v>
       </c>
       <c r="P3" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q3" t="n">
-        <v>113.7351914448925</v>
+        <v>125.6781381252464</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8142,19 +8142,19 @@
         <v>116.7662189439139</v>
       </c>
       <c r="L4" t="n">
-        <v>121.0542028586437</v>
+        <v>121.53674615886</v>
       </c>
       <c r="M4" t="n">
-        <v>112.8771994574291</v>
+        <v>124.820146137783</v>
       </c>
       <c r="N4" t="n">
-        <v>115.6874515583558</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O4" t="n">
-        <v>112.4959374921223</v>
+        <v>123.9563408722598</v>
       </c>
       <c r="P4" t="n">
-        <v>123.8469499702863</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q4" t="n">
         <v>84.9458458910769</v>
@@ -8233,10 +8233,10 @@
         <v>198.8977434604743</v>
       </c>
       <c r="P5" t="n">
-        <v>199.8197557315104</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q5" t="n">
-        <v>180.6233730229902</v>
+        <v>192.5663197033441</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8294,7 +8294,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>103.0555716666667</v>
+        <v>114.5159750468043</v>
       </c>
       <c r="K6" t="n">
         <v>123.9391158470206</v>
@@ -8306,16 +8306,16 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N6" t="n">
-        <v>118.1755444478459</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O6" t="n">
-        <v>127.802395291465</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
         <v>120.7971527044972</v>
       </c>
       <c r="Q6" t="n">
-        <v>113.7351914448925</v>
+        <v>125.6781381252464</v>
       </c>
       <c r="R6" t="n">
         <v>59.17817075471706</v>
@@ -8379,7 +8379,7 @@
         <v>104.82327226356</v>
       </c>
       <c r="L7" t="n">
-        <v>121.53674615886</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M7" t="n">
         <v>124.820146137783</v>
@@ -8391,7 +8391,7 @@
         <v>124.4388841724762</v>
       </c>
       <c r="P7" t="n">
-        <v>111.9040032899324</v>
+        <v>123.8469499702863</v>
       </c>
       <c r="Q7" t="n">
         <v>84.9458458910769</v>
@@ -8458,7 +8458,7 @@
         <v>190.2834073541843</v>
       </c>
       <c r="L8" t="n">
-        <v>203.5031588434685</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M8" t="n">
         <v>187.1563144971591</v>
@@ -8470,7 +8470,7 @@
         <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>187.8768090511565</v>
+        <v>199.8197557315104</v>
       </c>
       <c r="Q8" t="n">
         <v>192.5663197033441</v>
@@ -8531,28 +8531,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>114.9985183470206</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>123.4565725468042</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>124.5183802515017</v>
       </c>
       <c r="M9" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N9" t="n">
-        <v>118.6580877480622</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O9" t="n">
         <v>127.802395291465</v>
       </c>
       <c r="P9" t="n">
-        <v>120.3146094042809</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.6781381252464</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8613,22 +8613,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K10" t="n">
-        <v>104.82327226356</v>
+        <v>116.2836756436975</v>
       </c>
       <c r="L10" t="n">
-        <v>109.5937994785061</v>
+        <v>121.53674615886</v>
       </c>
       <c r="M10" t="n">
-        <v>124.820146137783</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N10" t="n">
-        <v>115.6874515583558</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O10" t="n">
         <v>124.4388841724762</v>
       </c>
       <c r="P10" t="n">
-        <v>123.36440667007</v>
+        <v>123.8469499702863</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8692,28 +8692,28 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>333.5662601030755</v>
       </c>
       <c r="M11" t="n">
-        <v>357.5892893448992</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>534.5141509616701</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q11" t="n">
-        <v>18.69860894963051</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R11" t="n">
-        <v>80.97282258948573</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,25 +8771,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L12" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M12" t="n">
-        <v>527.8723992698165</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>513.7234247897132</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>127.3855819182947</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>273.1004740566038</v>
+        <v>172.254457626409</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8935,19 +8935,19 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>539.5326907749571</v>
+        <v>47.91756009573542</v>
       </c>
       <c r="N14" t="n">
-        <v>421.7634255852751</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>18.69860894963051</v>
+        <v>18.69860894963048</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9005,25 +9005,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>27.25755470451981</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>402.334013934451</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M15" t="n">
-        <v>527.8723992698165</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>513.7234247897134</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>411.1749986295537</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>19.83504119386826</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>539.5326907749571</v>
+        <v>247.908118625563</v>
       </c>
       <c r="N17" t="n">
-        <v>534.51415096167</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>55.78595530326525</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.0094878578761</v>
+        <v>18.69860894963048</v>
       </c>
       <c r="R17" t="n">
-        <v>80.97282258948572</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,25 +9242,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>27.25755470451979</v>
+        <v>63.07232951233623</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>527.8723992698165</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>513.7234247897132</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>234.1178069910545</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9400,10 +9400,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>19.83504119386826</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9412,7 +9412,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>247.9081186255627</v>
+        <v>469.3065964382502</v>
       </c>
       <c r="O20" t="n">
         <v>495.0402356415689</v>
@@ -9479,19 +9479,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>27.25755470451979</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>527.8723992698164</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>513.7234247897131</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9500,7 +9500,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>93.21668181574042</v>
+        <v>172.254457626409</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9716,16 +9716,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>63.07232951233612</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,10 +9734,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>313.3196326754139</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.32464942426563</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,16 +9953,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>27.25755470451979</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>35.81477480781635</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>189.8314488212201</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
         <v>273.1004740566038</v>
@@ -10190,19 +10190,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>27.25755470451979</v>
+        <v>63.07232951233612</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>35.97882468150706</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10211,7 +10211,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.32464942426563</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10427,7 +10427,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>63.07232951233612</v>
       </c>
       <c r="K33" t="n">
         <v>343.8048081163522</v>
@@ -10436,13 +10436,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>411.1749986295533</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
         <v>414.0015992319183</v>
@@ -10588,25 +10588,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>220.4411454839195</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>539.5326907749569</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>534.5141509616698</v>
+        <v>534.5141509616699</v>
       </c>
       <c r="O35" t="n">
-        <v>433.2595692587768</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.69860894963048</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R35" t="n">
         <v>85.43134583487716</v>
@@ -10664,16 +10664,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>27.25755470451979</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>265.7487828862708</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>527.8723992698162</v>
+        <v>527.8723992698164</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>390.8638162805975</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.32464942426563</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10825,16 +10825,16 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
-        <v>357.5892893448985</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>542.9595789155856</v>
+        <v>212.3718899510457</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>539.532690774957</v>
       </c>
       <c r="N38" t="n">
-        <v>534.5141509616699</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>495.0402356415689</v>
@@ -10843,10 +10843,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.69860894963048</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
-        <v>80.97282258948572</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,25 +10904,25 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>527.8723992698162</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>513.723424789713</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>457.2522562132115</v>
+        <v>411.1749986295532</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.32464942426563</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11065,16 +11065,16 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>542.9595789155856</v>
+        <v>333.566260103075</v>
       </c>
       <c r="M41" t="n">
-        <v>290.1054400744495</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
         <v>418.3383206229274</v>
@@ -11083,7 +11083,7 @@
         <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
-        <v>80.97282258948572</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11147,19 +11147,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>405.0127907607009</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>513.7234247897131</v>
+        <v>242.958791686157</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.32464942426563</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>19.83504119386826</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>18.04715709976958</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>542.9595789155856</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>539.5326907749571</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>534.5141509616701</v>
+        <v>338.0247833484667</v>
       </c>
       <c r="O44" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>18.69860894963048</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R44" t="n">
         <v>80.97282258948572</v>
@@ -11378,25 +11378,25 @@
         <v>27.25755470451979</v>
       </c>
       <c r="K45" t="n">
-        <v>13.80118272889635</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L45" t="n">
-        <v>482.0924488944969</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>527.8723992698165</v>
+        <v>527.8723992698164</v>
       </c>
       <c r="N45" t="n">
-        <v>513.7234247897134</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>502.0558394922455</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.32464942426563</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>233.1921053576532</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>74.56389514030127</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
@@ -23323,10 +23323,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>150.4889240962943</v>
@@ -23430,16 +23430,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H13" t="n">
         <v>151.7988405018876</v>
       </c>
       <c r="I13" t="n">
-        <v>122.5339189574214</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.90342624128608</v>
+        <v>11.90342624128606</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>227.9733019088003</v>
       </c>
       <c r="U13" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>101.8443116602635</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>57.81646863971679</v>
       </c>
     </row>
     <row r="14">
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>8.621936840594174</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,16 +23551,16 @@
         <v>215.551472561587</v>
       </c>
       <c r="U14" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W14" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>378.2098390737216</v>
+        <v>73.24230103709493</v>
       </c>
       <c r="Y14" t="n">
         <v>389.6064368699203</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C16" t="n">
         <v>167.9198098429365</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S16" t="n">
         <v>199.8509778158173</v>
@@ -23709,19 +23709,19 @@
         <v>227.9733019088003</v>
       </c>
       <c r="U16" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>260.8746131493342</v>
       </c>
       <c r="X16" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.843449655862145</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I17" t="n">
         <v>113.2811119331022</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>151.1877507841112</v>
+        <v>89.66922513532023</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U17" t="n">
         <v>252.2165261579655</v>
@@ -23794,10 +23794,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>68.40964622287652</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -23940,16 +23940,16 @@
         <v>117.7837546691494</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9733019088003</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y19" t="n">
-        <v>72.69529965659788</v>
+        <v>177.2257601492064</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D20" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>252.2165261579655</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>212.7241956152968</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>60.72777154224923</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.45660475876782</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C22" t="n">
         <v>167.9198098429365</v>
@@ -24135,19 +24135,19 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H22" t="n">
         <v>151.7988405018876</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J22" t="n">
         <v>11.90342624128608</v>
@@ -24180,10 +24180,10 @@
         <v>199.8509778158173</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9733019088003</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>186.3508923931387</v>
       </c>
       <c r="Y22" t="n">
         <v>219.8148072196457</v>
@@ -24211,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>8.982240267322368</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>151.1877507841112</v>
       </c>
       <c r="T23" t="n">
-        <v>215.551472561587</v>
+        <v>107.6545138618264</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
         <v>151.5411742405149</v>
@@ -24375,19 +24375,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>62.11331444277739</v>
       </c>
       <c r="G25" t="n">
         <v>166.5579452058188</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.7988405018876</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>11.90342624128608</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S25" t="n">
         <v>199.8509778158173</v>
@@ -24420,16 +24420,16 @@
         <v>227.9733019088003</v>
       </c>
       <c r="U25" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>138.8635882052752</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>249.3269014375464</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I26" t="n">
-        <v>113.2811119331022</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>39.50610672158666</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24612,10 +24612,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5579452058188</v>
+        <v>46.95144465106021</v>
       </c>
       <c r="H28" t="n">
         <v>151.7988405018876</v>
@@ -24651,25 +24651,25 @@
         <v>117.7837546691494</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T28" t="n">
-        <v>63.60707651237695</v>
+        <v>227.9733019088003</v>
       </c>
       <c r="U28" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>378.1144210805207</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>215.551472561587</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>223.0229235407767</v>
       </c>
       <c r="W29" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>3.69843252967371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.9198098429365</v>
@@ -24846,13 +24846,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>61.64639011459109</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H31" t="n">
         <v>151.7988405018876</v>
@@ -24861,7 +24861,7 @@
         <v>122.5339189574214</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>11.90342624128608</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T31" t="n">
         <v>227.9733019088003</v>
       </c>
       <c r="U31" t="n">
-        <v>92.72784158135082</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>228.939939463578</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>219.7041999698941</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.4434871155996</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>126.6207398230999</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T32" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,22 +25083,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>151.7988405018876</v>
       </c>
       <c r="I34" t="n">
         <v>122.5339189574214</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>11.90342624128608</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>199.8509778158173</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9733019088003</v>
+        <v>34.36739199872696</v>
       </c>
       <c r="U34" t="n">
-        <v>105.4234111376772</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>39.75827205380705</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
         <v>378.1144210805207</v>
@@ -25162,13 +25162,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.4434871155996</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T35" t="n">
-        <v>215.551472561587</v>
+        <v>106.7975431821797</v>
       </c>
       <c r="U35" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -25323,7 +25323,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>146.649314989661</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>117.7837546691494</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>227.9733019088003</v>
       </c>
       <c r="U37" t="n">
-        <v>31.30085595366629</v>
+        <v>284.2816495190633</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="38">
@@ -25393,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>315.8807091655636</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>410.4434871155996</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>151.1877507841112</v>
       </c>
       <c r="T38" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>339.0962540482732</v>
       </c>
       <c r="Y38" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,22 +25557,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H40" t="n">
-        <v>44.46580734408073</v>
+        <v>151.7988405018876</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>11.90342624128608</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>199.8509778158173</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9733019088003</v>
+        <v>186.3508923931388</v>
       </c>
       <c r="U40" t="n">
-        <v>284.2816495190633</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="41">
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>410.4434871155996</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.2165261579655</v>
+        <v>110.2011563932992</v>
       </c>
       <c r="V41" t="n">
-        <v>240.2911160050186</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>358.909580840975</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.719814997536</v>
+        <v>141.8843323166972</v>
       </c>
       <c r="C43" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J43" t="n">
         <v>11.90342624128608</v>
@@ -25836,7 +25836,7 @@
         <v>117.7837546691494</v>
       </c>
       <c r="S43" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>227.9733019088003</v>
@@ -25845,16 +25845,16 @@
         <v>284.2816495190633</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>201.9955394785682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25873,19 +25873,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>299.7487669574099</v>
+        <v>410.4434871155996</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>314.136721391124</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>113.2811119331022</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>151.1877507841112</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>215.551472561587</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>252.2165261579655</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>100.0150121092255</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5579452058188</v>
       </c>
       <c r="H46" t="n">
-        <v>151.7988405018876</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.15485729588717</v>
+        <v>122.5339189574214</v>
       </c>
       <c r="J46" t="n">
         <v>11.90342624128608</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>117.7837546691494</v>
       </c>
       <c r="S46" t="n">
-        <v>199.8509778158173</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>195.460859845155</v>
       </c>
       <c r="U46" t="n">
         <v>284.2816495190633</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>219.8148072196457</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>711581.2320711596</v>
+        <v>711581.2320711599</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>711581.2320711596</v>
+        <v>711581.2320711598</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>580792.2560645371</v>
+        <v>580792.256064537</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>580792.256064537</v>
+        <v>580792.2560645371</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614099.2483953454</v>
+        <v>614099.2483953451</v>
       </c>
       <c r="C2" t="n">
         <v>614099.2483953454</v>
       </c>
       <c r="D2" t="n">
-        <v>614099.2483953449</v>
+        <v>614099.2483953454</v>
       </c>
       <c r="E2" t="n">
-        <v>419061.5940768604</v>
+        <v>419061.5940768603</v>
       </c>
       <c r="F2" t="n">
-        <v>419061.5940768603</v>
+        <v>419061.5940768602</v>
       </c>
       <c r="G2" t="n">
-        <v>419061.5940768605</v>
+        <v>419061.5940768602</v>
       </c>
       <c r="H2" t="n">
         <v>419061.5940768603</v>
       </c>
       <c r="I2" t="n">
+        <v>504087.2515145182</v>
+      </c>
+      <c r="J2" t="n">
+        <v>504087.2515145186</v>
+      </c>
+      <c r="K2" t="n">
         <v>504087.2515145185</v>
       </c>
-      <c r="J2" t="n">
-        <v>504087.2515145185</v>
-      </c>
-      <c r="K2" t="n">
-        <v>504087.2515145187</v>
-      </c>
       <c r="L2" t="n">
-        <v>504087.2515145183</v>
+        <v>504087.2515145186</v>
       </c>
       <c r="M2" t="n">
-        <v>419061.5940768601</v>
+        <v>419061.5940768603</v>
       </c>
       <c r="N2" t="n">
-        <v>419061.5940768601</v>
+        <v>419061.5940768602</v>
       </c>
       <c r="O2" t="n">
-        <v>419061.5940768601</v>
+        <v>419061.5940768603</v>
       </c>
       <c r="P2" t="n">
-        <v>419061.5940768603</v>
+        <v>419061.5940768602</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4002.356120360259</v>
+        <v>4002.356120360235</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>91490.98802074905</v>
+        <v>91490.98802074902</v>
       </c>
       <c r="J3" t="n">
-        <v>3124.800341234512</v>
+        <v>3124.800341234542</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>64711.3371926229</v>
+        <v>64711.33719262268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>382502.5179362813</v>
       </c>
       <c r="E4" t="n">
-        <v>83642.99703601304</v>
+        <v>83642.99703601302</v>
       </c>
       <c r="F4" t="n">
+        <v>83642.99703601301</v>
+      </c>
+      <c r="G4" t="n">
+        <v>83642.99703601301</v>
+      </c>
+      <c r="H4" t="n">
         <v>83642.99703601302</v>
-      </c>
-      <c r="G4" t="n">
-        <v>83642.99703601302</v>
-      </c>
-      <c r="H4" t="n">
-        <v>83642.99703601301</v>
       </c>
       <c r="I4" t="n">
         <v>113626.6648779584</v>
@@ -26450,16 +26450,16 @@
         <v>113626.6648779584</v>
       </c>
       <c r="M4" t="n">
-        <v>83642.99703601298</v>
+        <v>83642.99703601301</v>
       </c>
       <c r="N4" t="n">
         <v>83642.99703601301</v>
       </c>
       <c r="O4" t="n">
+        <v>83642.997036013</v>
+      </c>
+      <c r="P4" t="n">
         <v>83642.99703601301</v>
-      </c>
-      <c r="P4" t="n">
-        <v>83642.99703601304</v>
       </c>
     </row>
     <row r="5">
@@ -26487,7 +26487,7 @@
         <v>45563.83037388086</v>
       </c>
       <c r="H5" t="n">
-        <v>45563.83037388086</v>
+        <v>45563.83037388087</v>
       </c>
       <c r="I5" t="n">
         <v>66482.26882613376</v>
@@ -26502,13 +26502,13 @@
         <v>66482.26882613376</v>
       </c>
       <c r="M5" t="n">
-        <v>45563.83037388085</v>
+        <v>45563.83037388086</v>
       </c>
       <c r="N5" t="n">
-        <v>45563.83037388085</v>
+        <v>45563.83037388086</v>
       </c>
       <c r="O5" t="n">
-        <v>45563.83037388085</v>
+        <v>45563.83037388086</v>
       </c>
       <c r="P5" t="n">
         <v>45563.83037388086</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>193240.6431805384</v>
+        <v>193240.6431805381</v>
       </c>
       <c r="C6" t="n">
         <v>197242.9993008986</v>
       </c>
       <c r="D6" t="n">
-        <v>197242.9993008981</v>
+        <v>197242.9993008986</v>
       </c>
       <c r="E6" t="n">
-        <v>-190066.0987554081</v>
+        <v>-196161.025452861</v>
       </c>
       <c r="F6" t="n">
-        <v>289854.7666669665</v>
+        <v>283759.8399695136</v>
       </c>
       <c r="G6" t="n">
-        <v>289854.7666669666</v>
+        <v>283759.8399695136</v>
       </c>
       <c r="H6" t="n">
-        <v>289854.7666669665</v>
+        <v>283759.8399695138</v>
       </c>
       <c r="I6" t="n">
-        <v>232487.3297896773</v>
+        <v>229049.4548871512</v>
       </c>
       <c r="J6" t="n">
-        <v>320853.5174691918</v>
+        <v>317415.642566666</v>
       </c>
       <c r="K6" t="n">
-        <v>323978.3178104265</v>
+        <v>320540.4429079004</v>
       </c>
       <c r="L6" t="n">
-        <v>323978.3178104262</v>
+        <v>320540.4429079006</v>
       </c>
       <c r="M6" t="n">
-        <v>225143.4294743433</v>
+        <v>219048.5027768911</v>
       </c>
       <c r="N6" t="n">
-        <v>289854.7666669663</v>
+        <v>283759.8399695136</v>
       </c>
       <c r="O6" t="n">
-        <v>289854.7666669663</v>
+        <v>283759.8399695138</v>
       </c>
       <c r="P6" t="n">
-        <v>289854.7666669664</v>
+        <v>283759.8399695137</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>372.9905667326294</v>
+        <v>372.9905667326295</v>
       </c>
       <c r="F3" t="n">
         <v>372.9905667326294</v>
@@ -26807,7 +26807,7 @@
         <v>615.6683555774596</v>
       </c>
       <c r="H4" t="n">
-        <v>615.6683555774595</v>
+        <v>615.6683555774597</v>
       </c>
       <c r="I4" t="n">
         <v>959.7216195947769</v>
@@ -26822,16 +26822,16 @@
         <v>959.7216195947769</v>
       </c>
       <c r="M4" t="n">
-        <v>615.6683555774594</v>
+        <v>615.6683555774595</v>
       </c>
       <c r="N4" t="n">
-        <v>615.6683555774594</v>
+        <v>615.6683555774595</v>
       </c>
       <c r="O4" t="n">
-        <v>615.6683555774594</v>
+        <v>615.6683555774595</v>
       </c>
       <c r="P4" t="n">
-        <v>615.6683555774596</v>
+        <v>615.6683555774595</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>372.9905667326294</v>
+        <v>372.9905667326295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>603.7254088971058</v>
+        <v>603.7254088971057</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>344.0532640173174</v>
+        <v>344.0532640173172</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94294668035388</v>
+        <v>11.942946680354</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>259.6721448797888</v>
+        <v>259.6721448797879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>603.7254088971058</v>
+        <v>603.7254088971057</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D2" t="n">
-        <v>369.0957251250487</v>
+        <v>357.1527784446948</v>
       </c>
       <c r="E2" t="n">
-        <v>390.8378626949542</v>
+        <v>378.8949160146003</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>329.4930616586638</v>
+        <v>328.9833930055395</v>
       </c>
       <c r="I2" t="n">
-        <v>170.5793581501676</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>173.4137389355957</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>240.393536242792</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
         <v>333.6094813630181</v>
@@ -27478,7 +27478,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I3" t="n">
-        <v>55.75551577648572</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>48.66707877994797</v>
+        <v>47.24347953564978</v>
       </c>
       <c r="S3" t="n">
-        <v>139.3285454370332</v>
+        <v>140.7521446813314</v>
       </c>
       <c r="T3" t="n">
-        <v>174.8553061153208</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>204.366897797319</v>
       </c>
       <c r="V3" t="n">
         <v>226.1116663261494</v>
@@ -27526,7 +27526,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
-        <v>190.5961130869169</v>
+        <v>178.6531664065631</v>
       </c>
     </row>
     <row r="4">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>169.7768683171821</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D4" t="n">
-        <v>151.5411742405149</v>
+        <v>139.598227560161</v>
       </c>
       <c r="E4" t="n">
-        <v>138.5459774159405</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>139.0129017441268</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
-        <v>156.7112037097728</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H4" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I4" t="n">
-        <v>130.8180672729944</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J4" t="n">
         <v>59.456666199969</v>
@@ -27590,7 +27590,7 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>218.9042169721241</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27605,7 +27605,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>219.8148072196457</v>
+        <v>209.29545978359</v>
       </c>
     </row>
     <row r="5">
@@ -27627,7 +27627,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>399.4903313468757</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.22223498598085</v>
+        <v>77.7889569587513</v>
       </c>
       <c r="S5" t="n">
         <v>185.3566856159496</v>
@@ -27672,10 +27672,10 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>240.393536242792</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>321.6665346826642</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
@@ -27684,7 +27684,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>377.6634901895665</v>
       </c>
     </row>
     <row r="6">
@@ -27706,13 +27706,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>122.8275126335687</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
-        <v>115.4982682965944</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>86.99553219841505</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>55.75551577648572</v>
@@ -27742,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>59.18642621600367</v>
+        <v>48.66707877994797</v>
       </c>
       <c r="S6" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T6" t="n">
-        <v>186.7982527956746</v>
+        <v>174.8553061153208</v>
       </c>
       <c r="U6" t="n">
-        <v>216.3098444776729</v>
+        <v>204.366897797319</v>
       </c>
       <c r="V6" t="n">
         <v>226.1116663261494</v>
@@ -27776,7 +27776,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>157.4004624068808</v>
       </c>
       <c r="D7" t="n">
         <v>151.5411742405149</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>26.20902125249397</v>
       </c>
       <c r="R7" t="n">
-        <v>148.0265635717656</v>
+        <v>136.0836168914117</v>
       </c>
       <c r="S7" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T7" t="n">
-        <v>230.8471636524779</v>
+        <v>218.9042169721241</v>
       </c>
       <c r="U7" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V7" t="n">
-        <v>247.6086039611059</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W7" t="n">
-        <v>271.351890787421</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X7" t="n">
-        <v>216.9969927832241</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>207.8718605392918</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
-        <v>377.6047524273964</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
         <v>369.0957251250487</v>
@@ -27864,7 +27864,7 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>398.0667321025775</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>159.1460801229381</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>77.7889569587513</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>173.4137389355957</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>211.5960093702432</v>
       </c>
       <c r="U8" t="n">
         <v>252.3364829231459</v>
@@ -27979,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>47.24347953564978</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>140.7521446813314</v>
       </c>
       <c r="T9" t="n">
-        <v>176.2789053596189</v>
+        <v>174.8553061153208</v>
       </c>
       <c r="U9" t="n">
         <v>204.366897797319</v>
       </c>
       <c r="V9" t="n">
-        <v>214.1687196457955</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>226.9597633986692</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -28028,7 +28028,7 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2595713324632</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
         <v>130.8180672729944</v>
@@ -28061,7 +28061,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>199.6297182899954</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
         <v>230.8471636524779</v>
@@ -28073,13 +28073,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>272.7754900317192</v>
       </c>
       <c r="X10" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
-        <v>219.8148072196457</v>
+        <v>207.8718605392918</v>
       </c>
     </row>
     <row r="11">
@@ -31755,10 +31755,10 @@
         <v>1.499459564754288</v>
       </c>
       <c r="H11" t="n">
-        <v>15.35634026753985</v>
+        <v>15.35634026753986</v>
       </c>
       <c r="I11" t="n">
-        <v>57.80791487018973</v>
+        <v>57.80791487018976</v>
       </c>
       <c r="J11" t="n">
         <v>127.2647562340644</v>
@@ -31770,13 +31770,13 @@
         <v>236.6259652649625</v>
       </c>
       <c r="M11" t="n">
-        <v>263.2919792996615</v>
+        <v>263.2919792996616</v>
       </c>
       <c r="N11" t="n">
-        <v>267.5523187880196</v>
+        <v>267.5523187880198</v>
       </c>
       <c r="O11" t="n">
-        <v>252.6420677409942</v>
+        <v>252.6420677409943</v>
       </c>
       <c r="P11" t="n">
         <v>215.6241597361227</v>
@@ -31785,13 +31785,13 @@
         <v>161.9247640733597</v>
       </c>
       <c r="R11" t="n">
-        <v>94.19042688449662</v>
+        <v>94.19042688449665</v>
       </c>
       <c r="S11" t="n">
-        <v>34.16893483183836</v>
+        <v>34.16893483183838</v>
       </c>
       <c r="T11" t="n">
-        <v>6.563884244711898</v>
+        <v>6.5638842447119</v>
       </c>
       <c r="U11" t="n">
         <v>0.119956765180343</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8022815963682971</v>
+        <v>0.8022815963682974</v>
       </c>
       <c r="H12" t="n">
-        <v>7.748351207030661</v>
+        <v>7.748351207030662</v>
       </c>
       <c r="I12" t="n">
-        <v>27.62241461180322</v>
+        <v>27.62241461180323</v>
       </c>
       <c r="J12" t="n">
-        <v>75.79801696214689</v>
+        <v>75.79801696214692</v>
       </c>
       <c r="K12" t="n">
         <v>129.5508839188228</v>
@@ -31852,28 +31852,28 @@
         <v>203.279858869283</v>
       </c>
       <c r="N12" t="n">
-        <v>208.6600718554546</v>
+        <v>208.6600718554547</v>
       </c>
       <c r="O12" t="n">
-        <v>190.8832006938202</v>
+        <v>190.8832006938203</v>
       </c>
       <c r="P12" t="n">
         <v>153.2005971170304</v>
       </c>
       <c r="Q12" t="n">
-        <v>102.4105420206268</v>
+        <v>102.4105420206269</v>
       </c>
       <c r="R12" t="n">
-        <v>49.81183455346324</v>
+        <v>49.81183455346326</v>
       </c>
       <c r="S12" t="n">
-        <v>14.90202877464796</v>
+        <v>14.90202877464797</v>
       </c>
       <c r="T12" t="n">
         <v>3.233757837993267</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05278168397159852</v>
+        <v>0.05278168397159853</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6726059400096595</v>
+        <v>0.6726059400096597</v>
       </c>
       <c r="H13" t="n">
-        <v>5.98007826663134</v>
+        <v>5.980078266631342</v>
       </c>
       <c r="I13" t="n">
-        <v>20.22709499592685</v>
+        <v>20.22709499592686</v>
       </c>
       <c r="J13" t="n">
-        <v>47.55323995868292</v>
+        <v>47.55323995868294</v>
       </c>
       <c r="K13" t="n">
-        <v>78.14458103021315</v>
+        <v>78.14458103021316</v>
       </c>
       <c r="L13" t="n">
-        <v>99.99815948107248</v>
+        <v>99.99815948107251</v>
       </c>
       <c r="M13" t="n">
         <v>105.4340383962414</v>
@@ -31934,25 +31934,25 @@
         <v>102.9270526198419</v>
       </c>
       <c r="O13" t="n">
-        <v>95.06979232063809</v>
+        <v>95.06979232063811</v>
       </c>
       <c r="P13" t="n">
-        <v>81.34863114444096</v>
+        <v>81.34863114444099</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.32157557662703</v>
+        <v>56.32157557662705</v>
       </c>
       <c r="R13" t="n">
-        <v>30.24280890261613</v>
+        <v>30.24280890261614</v>
       </c>
       <c r="S13" t="n">
         <v>11.72168715453197</v>
       </c>
       <c r="T13" t="n">
-        <v>2.873861743677635</v>
+        <v>2.873861743677636</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03668759672779965</v>
+        <v>0.03668759672779966</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,10 +31992,10 @@
         <v>1.499459564754288</v>
       </c>
       <c r="H14" t="n">
-        <v>15.35634026753985</v>
+        <v>15.35634026753986</v>
       </c>
       <c r="I14" t="n">
-        <v>57.80791487018973</v>
+        <v>57.80791487018974</v>
       </c>
       <c r="J14" t="n">
         <v>127.2647562340644</v>
@@ -32010,7 +32010,7 @@
         <v>263.2919792996615</v>
       </c>
       <c r="N14" t="n">
-        <v>267.5523187880196</v>
+        <v>267.5523187880197</v>
       </c>
       <c r="O14" t="n">
         <v>252.6420677409942</v>
@@ -32022,13 +32022,13 @@
         <v>161.9247640733597</v>
       </c>
       <c r="R14" t="n">
-        <v>94.19042688449662</v>
+        <v>94.19042688449663</v>
       </c>
       <c r="S14" t="n">
-        <v>34.16893483183836</v>
+        <v>34.16893483183837</v>
       </c>
       <c r="T14" t="n">
-        <v>6.563884244711898</v>
+        <v>6.563884244711899</v>
       </c>
       <c r="U14" t="n">
         <v>0.119956765180343</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8022815963682971</v>
+        <v>0.8022815963682973</v>
       </c>
       <c r="H15" t="n">
         <v>7.748351207030661</v>
@@ -32077,7 +32077,7 @@
         <v>27.62241461180322</v>
       </c>
       <c r="J15" t="n">
-        <v>75.79801696214689</v>
+        <v>75.7980169621469</v>
       </c>
       <c r="K15" t="n">
         <v>129.5508839188228</v>
@@ -32092,25 +32092,25 @@
         <v>208.6600718554546</v>
       </c>
       <c r="O15" t="n">
-        <v>190.8832006938202</v>
+        <v>190.8832006938203</v>
       </c>
       <c r="P15" t="n">
         <v>153.2005971170304</v>
       </c>
       <c r="Q15" t="n">
-        <v>102.4105420206268</v>
+        <v>102.4105420206269</v>
       </c>
       <c r="R15" t="n">
-        <v>49.81183455346324</v>
+        <v>49.81183455346325</v>
       </c>
       <c r="S15" t="n">
-        <v>14.90202877464796</v>
+        <v>14.90202877464797</v>
       </c>
       <c r="T15" t="n">
         <v>3.233757837993267</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05278168397159852</v>
+        <v>0.05278168397159853</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6726059400096595</v>
+        <v>0.6726059400096596</v>
       </c>
       <c r="H16" t="n">
-        <v>5.98007826663134</v>
+        <v>5.980078266631341</v>
       </c>
       <c r="I16" t="n">
-        <v>20.22709499592685</v>
+        <v>20.22709499592686</v>
       </c>
       <c r="J16" t="n">
         <v>47.55323995868292</v>
       </c>
       <c r="K16" t="n">
-        <v>78.14458103021315</v>
+        <v>78.14458103021316</v>
       </c>
       <c r="L16" t="n">
-        <v>99.99815948107248</v>
+        <v>99.99815948107249</v>
       </c>
       <c r="M16" t="n">
         <v>105.4340383962414</v>
@@ -32171,16 +32171,16 @@
         <v>102.9270526198419</v>
       </c>
       <c r="O16" t="n">
-        <v>95.06979232063809</v>
+        <v>95.0697923206381</v>
       </c>
       <c r="P16" t="n">
-        <v>81.34863114444096</v>
+        <v>81.34863114444097</v>
       </c>
       <c r="Q16" t="n">
-        <v>56.32157557662703</v>
+        <v>56.32157557662704</v>
       </c>
       <c r="R16" t="n">
-        <v>30.24280890261613</v>
+        <v>30.24280890261614</v>
       </c>
       <c r="S16" t="n">
         <v>11.72168715453197</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>11.46040338013756</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>11.46040338013756</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="K3" t="n">
-        <v>11.46040338013756</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>11.94294668035388</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,19 +34862,19 @@
         <v>11.94294668035388</v>
       </c>
       <c r="L4" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11.94294668035388</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>11.46040338013756</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11.94294668035388</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34953,10 +34953,10 @@
         <v>11.94294668035388</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="K6" t="n">
         <v>11.94294668035388</v>
@@ -35026,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,7 +35099,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>11.94294668035388</v>
@@ -35111,7 +35111,7 @@
         <v>11.94294668035388</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,19 +35178,19 @@
         <v>11.46040338013756</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>11.94294668035388</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>11.94294668035388</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="P9" t="n">
-        <v>11.46040338013756</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>11.46040338013756</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="M10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>11.94294668035388</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>11.94294668035388</v>
       </c>
       <c r="P10" t="n">
-        <v>11.46040338013756</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>199.9905585298276</v>
+        <v>199.9905585298277</v>
       </c>
       <c r="K11" t="n">
-        <v>11.91387563606668</v>
+        <v>433.3029119785809</v>
       </c>
       <c r="L11" t="n">
-        <v>588.0253320174334</v>
+        <v>378.6320132049234</v>
       </c>
       <c r="M11" t="n">
-        <v>433.7249541474017</v>
+        <v>76.1356648025025</v>
       </c>
       <c r="N11" t="n">
-        <v>615.6683555774596</v>
+        <v>81.15420461578964</v>
       </c>
       <c r="O11" t="n">
         <v>560.7275066024426</v>
       </c>
       <c r="P11" t="n">
-        <v>27.74735068496619</v>
+        <v>446.0856713078937</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>257.3108789082456</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>4.458523245391461</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>136.6607912380117</v>
       </c>
       <c r="K12" t="n">
-        <v>17.55471475215612</v>
+        <v>361.3595228685084</v>
       </c>
       <c r="L12" t="n">
         <v>543.7141663242815</v>
       </c>
       <c r="M12" t="n">
-        <v>615.6683555774596</v>
+        <v>87.79595630764314</v>
       </c>
       <c r="N12" t="n">
-        <v>615.6683555774596</v>
+        <v>101.9449307877464</v>
       </c>
       <c r="O12" t="n">
-        <v>202.4093340010038</v>
+        <v>587.0447671424575</v>
       </c>
       <c r="P12" t="n">
-        <v>44.34639109288703</v>
+        <v>458.3479903248054</v>
       </c>
       <c r="Q12" t="n">
-        <v>261.7758246323382</v>
+        <v>160.9298082021434</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>112.0882050147014</v>
+        <v>112.0882050147015</v>
       </c>
       <c r="L13" t="n">
-        <v>201.6214720065871</v>
+        <v>201.6214720065872</v>
       </c>
       <c r="M13" t="n">
-        <v>224.6193981210916</v>
+        <v>224.6193981210917</v>
       </c>
       <c r="N13" t="n">
-        <v>222.5455796396402</v>
+        <v>222.5455796396403</v>
       </c>
       <c r="O13" t="n">
         <v>194.528021104163</v>
       </c>
       <c r="P13" t="n">
-        <v>144.9531601627619</v>
+        <v>144.953160162762</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.16960764377918</v>
+        <v>18.16960764377919</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35652,25 +35652,25 @@
         <v>433.3029119785808</v>
       </c>
       <c r="L14" t="n">
-        <v>588.0253320174334</v>
+        <v>588.0253320174335</v>
       </c>
       <c r="M14" t="n">
-        <v>615.6683555774596</v>
+        <v>124.0532248982379</v>
       </c>
       <c r="N14" t="n">
-        <v>502.9176302010646</v>
+        <v>81.15420461578958</v>
       </c>
       <c r="O14" t="n">
-        <v>65.68727096087375</v>
+        <v>560.7275066024426</v>
       </c>
       <c r="P14" t="n">
-        <v>27.74735068496619</v>
+        <v>446.0856713078937</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.458523245391433</v>
+        <v>4.458523245391447</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>136.6607912380117</v>
       </c>
       <c r="K15" t="n">
         <v>361.3595228685083</v>
       </c>
       <c r="L15" t="n">
-        <v>463.9557313642355</v>
+        <v>543.7141663242815</v>
       </c>
       <c r="M15" t="n">
-        <v>615.6683555774596</v>
+        <v>87.79595630764311</v>
       </c>
       <c r="N15" t="n">
-        <v>615.6683555774596</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O15" t="n">
-        <v>75.02375208270914</v>
+        <v>486.1987507122628</v>
       </c>
       <c r="P15" t="n">
-        <v>44.34639109288703</v>
+        <v>458.3479903248054</v>
       </c>
       <c r="Q15" t="n">
         <v>261.7758246323382</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>112.0882050147014</v>
+        <v>112.0882050147015</v>
       </c>
       <c r="L16" t="n">
         <v>201.6214720065871</v>
@@ -35822,10 +35822,10 @@
         <v>194.528021104163</v>
       </c>
       <c r="P16" t="n">
-        <v>144.9531601627619</v>
+        <v>144.953160162762</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.16960764377918</v>
+        <v>18.16960764377919</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>199.9905585298276</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>11.91387563606671</v>
+        <v>433.3029119785808</v>
       </c>
       <c r="L17" t="n">
         <v>588.0253320174335</v>
       </c>
       <c r="M17" t="n">
-        <v>615.6683555774596</v>
+        <v>324.0437834280655</v>
       </c>
       <c r="N17" t="n">
-        <v>615.6683555774596</v>
+        <v>81.15420461578958</v>
       </c>
       <c r="O17" t="n">
-        <v>121.473226264139</v>
+        <v>560.7275066024426</v>
       </c>
       <c r="P17" t="n">
-        <v>27.74735068496622</v>
+        <v>446.0856713078937</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.3108789082456</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4.458523245391447</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>35.81477480781644</v>
       </c>
       <c r="K18" t="n">
-        <v>17.55471475215614</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L18" t="n">
-        <v>61.6217174297845</v>
+        <v>543.7141663242815</v>
       </c>
       <c r="M18" t="n">
-        <v>615.6683555774596</v>
+        <v>87.79595630764311</v>
       </c>
       <c r="N18" t="n">
-        <v>615.6683555774596</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O18" t="n">
         <v>587.0447671424575</v>
       </c>
       <c r="P18" t="n">
-        <v>278.4641980839416</v>
+        <v>458.3479903248054</v>
       </c>
       <c r="Q18" t="n">
         <v>261.7758246323382</v>
@@ -36120,10 +36120,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>199.9905585298276</v>
       </c>
       <c r="K20" t="n">
-        <v>433.3029119785808</v>
+        <v>11.91387563606671</v>
       </c>
       <c r="L20" t="n">
         <v>588.0253320174335</v>
@@ -36132,7 +36132,7 @@
         <v>76.13566480250245</v>
       </c>
       <c r="N20" t="n">
-        <v>329.0623232413523</v>
+        <v>550.4608010540397</v>
       </c>
       <c r="O20" t="n">
         <v>560.7275066024426</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>136.6607912380117</v>
       </c>
       <c r="K21" t="n">
-        <v>17.55471475215614</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L21" t="n">
-        <v>61.6217174297845</v>
+        <v>543.7141663242815</v>
       </c>
       <c r="M21" t="n">
-        <v>615.6683555774595</v>
+        <v>87.79595630764311</v>
       </c>
       <c r="N21" t="n">
-        <v>615.6683555774595</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O21" t="n">
         <v>587.0447671424575</v>
@@ -36220,7 +36220,7 @@
         <v>458.3479903248054</v>
       </c>
       <c r="Q21" t="n">
-        <v>81.89203239147479</v>
+        <v>160.9298082021434</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>136.6607912380117</v>
+        <v>35.81477480781633</v>
       </c>
       <c r="K24" t="n">
-        <v>17.55471475215614</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L24" t="n">
         <v>543.7141663242815</v>
       </c>
       <c r="M24" t="n">
-        <v>693.212539182643</v>
+        <v>87.79595630764311</v>
       </c>
       <c r="N24" t="n">
         <v>101.9449307877463</v>
@@ -36454,10 +36454,10 @@
         <v>587.0447671424575</v>
       </c>
       <c r="P24" t="n">
-        <v>357.6660237683009</v>
+        <v>458.3479903248054</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>136.6607912380117</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>361.3595228685083</v>
       </c>
       <c r="L27" t="n">
-        <v>61.6217174297845</v>
+        <v>543.7141663242815</v>
       </c>
       <c r="M27" t="n">
-        <v>693.212539182643</v>
+        <v>123.6107311154595</v>
       </c>
       <c r="N27" t="n">
         <v>101.9449307877463</v>
@@ -36691,7 +36691,7 @@
         <v>587.0447671424575</v>
       </c>
       <c r="P27" t="n">
-        <v>234.1778399141072</v>
+        <v>458.3479903248054</v>
       </c>
       <c r="Q27" t="n">
         <v>261.7758246323382</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>35.81477480781633</v>
       </c>
       <c r="K30" t="n">
-        <v>17.55471475215614</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L30" t="n">
         <v>543.7141663242815</v>
       </c>
       <c r="M30" t="n">
-        <v>693.212539182643</v>
+        <v>87.79595630764311</v>
       </c>
       <c r="N30" t="n">
-        <v>137.9237554692534</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O30" t="n">
         <v>587.0447671424575</v>
@@ -36931,7 +36931,7 @@
         <v>458.3479903248054</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>136.6607912380117</v>
+        <v>35.81477480781633</v>
       </c>
       <c r="K33" t="n">
         <v>361.3595228685083</v>
@@ -37156,13 +37156,13 @@
         <v>543.7141663242815</v>
       </c>
       <c r="M33" t="n">
-        <v>498.9709549371964</v>
+        <v>87.79595630764311</v>
       </c>
       <c r="N33" t="n">
         <v>101.9449307877463</v>
       </c>
       <c r="O33" t="n">
-        <v>75.02375208270917</v>
+        <v>587.0447671424575</v>
       </c>
       <c r="P33" t="n">
         <v>458.3479903248054</v>
@@ -37308,25 +37308,25 @@
         <v>199.9905585298276</v>
       </c>
       <c r="K35" t="n">
-        <v>11.91387563606671</v>
+        <v>232.3550211199862</v>
       </c>
       <c r="L35" t="n">
         <v>45.06575310184789</v>
       </c>
       <c r="M35" t="n">
-        <v>615.6683555774594</v>
+        <v>76.13566480250245</v>
       </c>
       <c r="N35" t="n">
-        <v>615.6683555774594</v>
+        <v>615.6683555774595</v>
       </c>
       <c r="O35" t="n">
-        <v>498.9468402196505</v>
+        <v>560.7275066024426</v>
       </c>
       <c r="P35" t="n">
         <v>446.0856713078937</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>257.3108789082456</v>
       </c>
       <c r="R35" t="n">
         <v>4.458523245391447</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>136.6607912380117</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>17.55471475215614</v>
+        <v>283.303497638427</v>
       </c>
       <c r="L36" t="n">
         <v>543.7141663242815</v>
       </c>
       <c r="M36" t="n">
-        <v>615.6683555774594</v>
+        <v>615.6683555774595</v>
       </c>
       <c r="N36" t="n">
         <v>101.9449307877463</v>
@@ -37402,10 +37402,10 @@
         <v>587.0447671424575</v>
       </c>
       <c r="P36" t="n">
-        <v>435.2102073734845</v>
+        <v>44.34639109288706</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,16 +37545,16 @@
         <v>199.9905585298276</v>
       </c>
       <c r="K38" t="n">
-        <v>369.5031649809652</v>
+        <v>433.3029119785808</v>
       </c>
       <c r="L38" t="n">
-        <v>588.0253320174335</v>
+        <v>257.4376430528936</v>
       </c>
       <c r="M38" t="n">
-        <v>76.13566480250245</v>
+        <v>615.6683555774595</v>
       </c>
       <c r="N38" t="n">
-        <v>615.6683555774594</v>
+        <v>81.15420461578958</v>
       </c>
       <c r="O38" t="n">
         <v>560.7275066024426</v>
@@ -37563,10 +37563,10 @@
         <v>27.74735068496622</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>257.3108789082456</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>4.458523245391447</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>136.6607912380117</v>
       </c>
       <c r="K39" t="n">
-        <v>17.55471475215614</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L39" t="n">
-        <v>61.6217174297845</v>
+        <v>543.7141663242815</v>
       </c>
       <c r="M39" t="n">
-        <v>615.6683555774594</v>
+        <v>87.79595630764311</v>
       </c>
       <c r="N39" t="n">
-        <v>615.6683555774594</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O39" t="n">
-        <v>532.2760082959206</v>
+        <v>486.1987507122624</v>
       </c>
       <c r="P39" t="n">
         <v>458.3479903248054</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>433.3029119785808</v>
       </c>
       <c r="L41" t="n">
-        <v>588.0253320174335</v>
+        <v>378.6320132049229</v>
       </c>
       <c r="M41" t="n">
-        <v>366.2411048769519</v>
+        <v>76.13566480250245</v>
       </c>
       <c r="N41" t="n">
         <v>81.15420461578958</v>
       </c>
       <c r="O41" t="n">
-        <v>65.68727096087378</v>
+        <v>560.7275066024426</v>
       </c>
       <c r="P41" t="n">
         <v>446.0856713078937</v>
@@ -37803,7 +37803,7 @@
         <v>257.3108789082456</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4.458523245391447</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>543.7141663242815</v>
       </c>
       <c r="M42" t="n">
-        <v>492.808747068344</v>
+        <v>87.79595630764311</v>
       </c>
       <c r="N42" t="n">
-        <v>615.6683555774594</v>
+        <v>344.9037224739033</v>
       </c>
       <c r="O42" t="n">
         <v>587.0447671424575</v>
       </c>
       <c r="P42" t="n">
-        <v>44.34639109288706</v>
+        <v>458.3479903248054</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>199.9905585298276</v>
       </c>
       <c r="K44" t="n">
-        <v>29.96103273583629</v>
+        <v>433.3029119785808</v>
       </c>
       <c r="L44" t="n">
-        <v>588.0253320174335</v>
+        <v>45.06575310184789</v>
       </c>
       <c r="M44" t="n">
-        <v>615.6683555774596</v>
+        <v>76.13566480250245</v>
       </c>
       <c r="N44" t="n">
-        <v>615.6683555774596</v>
+        <v>419.1789879642563</v>
       </c>
       <c r="O44" t="n">
         <v>560.7275066024426</v>
       </c>
       <c r="P44" t="n">
-        <v>27.74735068496622</v>
+        <v>446.0856713078937</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>257.3108789082456</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>31.35589748105249</v>
+        <v>361.3595228685083</v>
       </c>
       <c r="L45" t="n">
-        <v>543.7141663242815</v>
+        <v>61.6217174297845</v>
       </c>
       <c r="M45" t="n">
-        <v>615.6683555774596</v>
+        <v>615.6683555774595</v>
       </c>
       <c r="N45" t="n">
-        <v>615.6683555774596</v>
+        <v>101.9449307877463</v>
       </c>
       <c r="O45" t="n">
-        <v>587.0447671424575</v>
+        <v>577.0795915749546</v>
       </c>
       <c r="P45" t="n">
-        <v>44.34639109288706</v>
+        <v>458.3479903248054</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>261.7758246323382</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
